--- a/Översikt HYLTE.xlsx
+++ b/Översikt HYLTE.xlsx
@@ -575,7 +575,7 @@
         <v>44873</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45960.55587962963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45245</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>45904</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>45099</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44601</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45343.54708333333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>45951</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45951</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45245</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>46048</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>45299</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>44332.8927662037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>45265.62506944445</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>45664.60349537037</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>44261</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>44295</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44306.61185185185</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>44266.43267361111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>44274.36774305555</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>44293.64414351852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         <v>44384.7596412037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>44356.61467592593</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>44481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>44810.32085648148</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>44373.56392361111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>44442</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>44242</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>44256</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>44307</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>44251</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>44454</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>44600.80572916667</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>44557</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>44407</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44529</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44705.55137731481</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44483.62717592593</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>44375</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44488</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>44778</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44455.3215625</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>44336.29427083334</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44475</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>44263</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>44624.50719907408</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>44267</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>44267</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>44267</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>44812.38810185185</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>44638.68053240741</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>44845</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>44498.52659722222</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>44823.50232638889</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>44266.43594907408</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44559.63728009259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44578.78960648148</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44659</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>44770.54641203704</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>44341.49761574074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>44266.43403935185</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>44454</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>44648.7996412037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>44323.50259259259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>44375.65076388889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>44756</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>44651.54018518519</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>44371</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>44501</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44389</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>44265.67184027778</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44651.74912037037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44876</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>44711</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>44487</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44735.37892361111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>44357</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>44477.47153935185</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>44267</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44356</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44356.62792824074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>44489</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>44371</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44266.44005787037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>44834.64466435185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44469</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>44395.92155092592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>44796.56157407408</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>44502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>44336.65660879629</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>44839.40571759259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>44631</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>44659.52917824074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>44876.8518287037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>44644</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>44384.35923611111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>44515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>44778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>44449.47519675926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44455</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>44482.47785879629</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>44482.49334490741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>44867.34995370371</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>44505.61444444444</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>44634</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>44267</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>44363.38550925926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44728.58040509259</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>44770.54723379629</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>44714.34483796296</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>44336.64763888889</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>44448</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>44298</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>44243</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>44795.44545138889</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>44753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>44699.64168981482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>44818.55752314815</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>44801.89085648148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>44596</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>44644.43534722222</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>44523.62166666667</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44500.48740740741</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44727.56915509259</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>44705.55438657408</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44659.49291666667</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44659</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>44757.5672337963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>44494.82555555556</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>44495.59643518519</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>45460.46581018518</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>45002.67559027778</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>45568.61094907407</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>44487</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>45132.34225694444</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44900.59535879629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>45715.78807870371</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>44851.87695601852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44851.88628472222</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>44714</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>45062.64271990741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>44476.50186342592</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>44302</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>45107.56026620371</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44321.46956018519</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>44958.27760416667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>44899.73085648148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>44559</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>45211</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>45548.57417824074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         <v>45254.46633101852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>45254.49128472222</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>45258</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>45229.41303240741</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>45589.32143518519</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>45098.38493055556</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>45254.24417824074</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>45254.24543981482</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>44910.59451388889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>44868</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>45348</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>45104.42195601852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>45684.91756944444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>45539</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>45538</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>44823</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>45737.71179398148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>45352</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>45352.46850694445</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>45600</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44719</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44896.50399305556</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>45733.90141203703</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44887</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>45638.80822916667</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>45840.62119212963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>45825.56289351852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>45424</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>45434</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>45760.48758101852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>45887.49594907407</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>45163.4753587963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>45089</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>45245</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>45673.90599537037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>45252</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>45752</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>45145</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         <v>45834.34462962963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>45687.32655092593</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>45806.2697800926</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>45436</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>45806.27275462963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>45609.90935185185</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>45194.49366898148</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>45889.51666666667</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>45812.44450231481</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>45812.52005787037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>45812.44835648148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>45812.461875</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>44482.49483796296</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>44266</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44701.40556712963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>45182.43619212963</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>45890.61922453704</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>45748.9025</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>45890.53888888889</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>45891</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         <v>45891</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13080,7 +13080,7 @@
         <v>45812.34607638889</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>45706.58739583333</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>45615.9209375</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>44901.36942129629</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         <v>45181</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         <v>45817.46157407408</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13422,7 +13422,7 @@
         <v>44495.58530092592</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13479,7 +13479,7 @@
         <v>44281.63407407407</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>45817</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>45891</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>45694</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>45441.43622685185</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>45441.47888888889</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>45897.90869212963</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>45694.96034722222</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>45839</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>45898.93831018519</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>45897.90677083333</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>45708.39929398148</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>45597.56563657407</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>45387</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>45730.94172453704</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>45841.65174768519</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>45817</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>45820.62440972222</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45310.68920138889</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45229</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44900.43803240741</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45299</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45905</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>45904.42685185185</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45906.50572916667</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>45825.56074074074</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>45825.56381944445</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>44332.88799768518</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45906.50864583333</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>45838.38233796296</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>45825.56527777778</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>45832</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>45910.54612268518</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15365,7 +15365,7 @@
         <v>45777.8774537037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15422,7 +15422,7 @@
         <v>44999.33878472223</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>45910.88354166667</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>45548.56550925926</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>45527</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44236</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44847</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>45919.58478009259</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>45918.38724537037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>45919.57086805555</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>45919.5725</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>45919.32479166667</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>45918.62341435185</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>45831.40982638889</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>45918</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45919.58993055556</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>45922</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>45922.39290509259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>44371.51618055555</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>45922</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16505,7 +16505,7 @@
         <v>44778</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16562,7 +16562,7 @@
         <v>45833</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16619,7 +16619,7 @@
         <v>45359.36799768519</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16676,7 +16676,7 @@
         <v>45173</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16733,7 +16733,7 @@
         <v>45848.62380787037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16790,7 +16790,7 @@
         <v>45132.35609953704</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16847,7 +16847,7 @@
         <v>45924.40980324074</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>45478.34775462963</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>45924.42583333333</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>45891.47208333333</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>45019</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>45926.55349537037</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>45601.55399305555</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>45929.53550925926</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45929.53706018518</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>45926.5547337963</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>45926.55976851852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>45929.63052083334</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45929.62858796296</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>45835.63642361111</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>45254.24484953703</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>45331</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17759,7 +17759,7 @@
         <v>45287.33472222222</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17816,7 +17816,7 @@
         <v>45929.53883101852</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17873,7 +17873,7 @@
         <v>45929.63457175926</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>45558</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>45835.40422453704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>45931.66429398148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>45841.63096064814</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>45838.74873842593</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>45931.6360300926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>45931.63710648148</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>44347.51603009259</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>45841.63418981482</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18443,7 +18443,7 @@
         <v>45930.96792824074</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>45931.600625</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>45931.60741898148</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>45366.54407407407</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>45836.52755787037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18728,7 +18728,7 @@
         <v>45836.61804398148</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18785,7 +18785,7 @@
         <v>45838.41030092593</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18842,7 +18842,7 @@
         <v>45839</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18899,7 +18899,7 @@
         <v>45476.46474537037</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>45836.51347222222</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>45836.52130787037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45933.35831018518</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>45933</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>45840.59165509259</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>45245.57619212963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19303,7 +19303,7 @@
         <v>45840.21756944444</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19365,7 +19365,7 @@
         <v>45933.36384259259</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>45642</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>45936.3324074074</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>45485</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>45560.4652662037</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>45840.64344907407</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>45936.33104166666</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>45936.33180555556</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19821,7 +19821,7 @@
         <v>45840.2062962963</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>45840.69015046296</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>45840.64900462963</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>45840.91797453703</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>45841.64542824074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>45163</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>45840.61630787037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>45674.69728009259</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         <v>45841.6372337963</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20339,7 +20339,7 @@
         <v>45840.66315972222</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45887</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>45938</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>45939.60835648148</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>45939.48560185185</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>45937.37216435185</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20686,7 +20686,7 @@
         <v>45942.69231481481</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20743,7 +20743,7 @@
         <v>44480</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         <v>44865</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20857,7 +20857,7 @@
         <v>45800.43460648148</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20914,7 +20914,7 @@
         <v>45842.43490740741</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>45944</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21028,7 +21028,7 @@
         <v>45944</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21085,7 +21085,7 @@
         <v>45454</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21142,7 +21142,7 @@
         <v>45945.64885416667</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21199,7 +21199,7 @@
         <v>45944</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>45944</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>45847.31618055556</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>45847.32033564815</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>45845.834375</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>45845.8321875</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>45846</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21603,7 +21603,7 @@
         <v>44701.34938657407</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>45300.36232638889</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>45846</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>45846</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45848.63644675926</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>44274.44606481482</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21965,7 +21965,7 @@
         <v>45803.45482638889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>45853.60252314815</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22079,7 +22079,7 @@
         <v>45456.49001157407</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22136,7 +22136,7 @@
         <v>45429.38091435185</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
         <v>45405.35324074074</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22250,7 +22250,7 @@
         <v>44797.45368055555</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22307,7 +22307,7 @@
         <v>45035.65569444445</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>45866.55670138889</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>45700.31226851852</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45700.31631944444</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>45259</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>45169.63672453703</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>45104.36805555555</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>45957.39216435186</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>45951</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22820,7 +22820,7 @@
         <v>45687.54509259259</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44900.4021875</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22934,7 +22934,7 @@
         <v>45951</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22991,7 +22991,7 @@
         <v>44739.55142361111</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>45190.59511574074</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>45293</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23162,7 +23162,7 @@
         <v>45392</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23219,7 +23219,7 @@
         <v>45630</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23276,7 +23276,7 @@
         <v>45145.58725694445</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>45957.39133101852</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23390,7 +23390,7 @@
         <v>45623</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>45791</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>44917.60630787037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>44322</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>45190</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23680,7 +23680,7 @@
         <v>44340</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>45524</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23794,7 +23794,7 @@
         <v>45524</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         <v>45517</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23908,7 +23908,7 @@
         <v>45545.86592592593</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23965,7 +23965,7 @@
         <v>45702</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>45204.83961805556</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>45395.39934027778</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>45541</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>45561</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>45677</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>45589</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>45727</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24426,7 +24426,7 @@
         <v>45252</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>45257</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>45309</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>45245</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>45288</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44896.50284722223</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44592</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>45407</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44322</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>45589</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>45951</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25058,7 +25058,7 @@
         <v>45623</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25115,7 +25115,7 @@
         <v>45769.61311342593</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>45672.70796296297</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>45672.70996527778</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>45799</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>45524</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>44508</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25457,7 +25457,7 @@
         <v>44384</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>44889</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45199.83810185185</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>44671</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25685,7 +25685,7 @@
         <v>45176</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45199.83545138889</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>45372</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>45372</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25913,7 +25913,7 @@
         <v>45665.55378472222</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>45819</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26027,7 +26027,7 @@
         <v>44712</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26084,7 +26084,7 @@
         <v>45395.4019675926</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26141,7 +26141,7 @@
         <v>44739.55359953704</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26198,7 +26198,7 @@
         <v>45230</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26255,7 +26255,7 @@
         <v>45672</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26312,7 +26312,7 @@
         <v>44701.5594212963</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26369,7 +26369,7 @@
         <v>45791</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26426,7 +26426,7 @@
         <v>45677</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>45361.72229166667</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26540,7 +26540,7 @@
         <v>45735</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26597,7 +26597,7 @@
         <v>45610</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26654,7 +26654,7 @@
         <v>45679</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>44974.38300925926</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26768,7 +26768,7 @@
         <v>45735</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26825,7 +26825,7 @@
         <v>44483</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26882,7 +26882,7 @@
         <v>45617.47813657407</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26939,7 +26939,7 @@
         <v>45959.66341435185</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26996,7 +26996,7 @@
         <v>45272.66641203704</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27053,7 +27053,7 @@
         <v>45309</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27110,7 +27110,7 @@
         <v>45432</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27167,7 +27167,7 @@
         <v>45162.45288194445</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27224,7 +27224,7 @@
         <v>45293</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27281,7 +27281,7 @@
         <v>44483</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27338,7 +27338,7 @@
         <v>44476</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27395,7 +27395,7 @@
         <v>44238</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>44671</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27509,7 +27509,7 @@
         <v>45603</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27566,7 +27566,7 @@
         <v>45131</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27623,7 +27623,7 @@
         <v>45574</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27680,7 +27680,7 @@
         <v>45589</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27737,7 +27737,7 @@
         <v>45546.28277777778</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27794,7 +27794,7 @@
         <v>45618</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27851,7 +27851,7 @@
         <v>45623</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>45517</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27965,7 +27965,7 @@
         <v>44694.42996527778</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28022,7 +28022,7 @@
         <v>45502.46032407408</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28079,7 +28079,7 @@
         <v>45838.38613425926</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28136,7 +28136,7 @@
         <v>44817</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28193,7 +28193,7 @@
         <v>45257</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>45245</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28312,7 +28312,7 @@
         <v>45692</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28369,7 +28369,7 @@
         <v>44974</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28426,7 +28426,7 @@
         <v>44964</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28483,7 +28483,7 @@
         <v>45091</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28540,7 +28540,7 @@
         <v>45790.37271990741</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28597,7 +28597,7 @@
         <v>44926.32438657407</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44455.40655092592</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>45876.63390046296</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>45604.37665509259</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>45097</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>44277.63270833333</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>45477.83650462963</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>45265.63447916666</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>45938.6012962963</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>45961.49508101852</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>45084</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29229,7 +29229,7 @@
         <v>45877</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>45922</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>45880.5372337963</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>45880.41700231482</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>45880</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29514,7 +29514,7 @@
         <v>45880.41631944444</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29571,7 +29571,7 @@
         <v>45880.42084490741</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29628,7 +29628,7 @@
         <v>45880</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>45960.68140046296</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>45960.68377314815</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29799,7 +29799,7 @@
         <v>45961.39516203704</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29856,7 +29856,7 @@
         <v>45961.48678240741</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29913,7 +29913,7 @@
         <v>45751</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29975,7 +29975,7 @@
         <v>44236</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30032,7 +30032,7 @@
         <v>45880</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30089,7 +30089,7 @@
         <v>44953.47414351852</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         <v>45019.47556712963</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30203,7 +30203,7 @@
         <v>45880.53280092592</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30260,7 +30260,7 @@
         <v>45880.53618055556</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30317,7 +30317,7 @@
         <v>45880.53783564815</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30374,7 +30374,7 @@
         <v>45299</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30431,7 +30431,7 @@
         <v>45880</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30488,7 +30488,7 @@
         <v>45880.53377314815</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30545,7 +30545,7 @@
         <v>45880.53457175926</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30602,7 +30602,7 @@
         <v>45880.53542824074</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30659,7 +30659,7 @@
         <v>45645.71857638889</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30716,7 +30716,7 @@
         <v>45436</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30773,7 +30773,7 @@
         <v>45366</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         <v>45505</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30892,7 +30892,7 @@
         <v>44903</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30949,7 +30949,7 @@
         <v>45972.44842592593</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31006,7 +31006,7 @@
         <v>45972</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31063,7 +31063,7 @@
         <v>45972.35881944445</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>45096.35314814815</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31177,7 +31177,7 @@
         <v>45167</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31234,7 +31234,7 @@
         <v>45645.89479166667</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>45352.42900462963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>45975.675625</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>45978.37584490741</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
         <v>45979.6125462963</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31524,7 +31524,7 @@
         <v>45978.37863425926</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         <v>45254</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31638,7 +31638,7 @@
         <v>45254.67153935185</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31695,7 +31695,7 @@
         <v>45593</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31752,7 +31752,7 @@
         <v>45203.51585648148</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31809,7 +31809,7 @@
         <v>44481.57100694445</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31866,7 +31866,7 @@
         <v>45979</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31923,7 +31923,7 @@
         <v>44750.51511574074</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -31980,7 +31980,7 @@
         <v>45981</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32037,7 +32037,7 @@
         <v>45981</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32094,7 +32094,7 @@
         <v>44714.33734953704</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32151,7 +32151,7 @@
         <v>45153</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32213,7 +32213,7 @@
         <v>45980.60736111111</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32270,7 +32270,7 @@
         <v>45441.46991898148</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32327,7 +32327,7 @@
         <v>45441.47077546296</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32384,7 +32384,7 @@
         <v>45441.47675925926</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32441,7 +32441,7 @@
         <v>45377.67119212963</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32503,7 +32503,7 @@
         <v>46020.62300925926</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32560,7 +32560,7 @@
         <v>45170.44670138889</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32617,7 +32617,7 @@
         <v>45987.59237268518</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32674,7 +32674,7 @@
         <v>44869</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32731,7 +32731,7 @@
         <v>44266.43890046296</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32793,7 +32793,7 @@
         <v>45754.47988425926</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32850,7 +32850,7 @@
         <v>45987</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32907,7 +32907,7 @@
         <v>45268.56440972222</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32964,7 +32964,7 @@
         <v>46030.71700231481</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33021,7 +33021,7 @@
         <v>45441.43418981481</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33083,7 +33083,7 @@
         <v>45989</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33140,7 +33140,7 @@
         <v>45989.57967592592</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33197,7 +33197,7 @@
         <v>45597.56770833334</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33254,7 +33254,7 @@
         <v>46030.62461805555</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33311,7 +33311,7 @@
         <v>45092</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33368,7 +33368,7 @@
         <v>46031.62175925926</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33430,7 +33430,7 @@
         <v>46030</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33487,7 +33487,7 @@
         <v>46031.61980324074</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33549,7 +33549,7 @@
         <v>46031.62116898148</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33611,7 +33611,7 @@
         <v>44405.6525</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33668,7 +33668,7 @@
         <v>45378.45703703703</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33725,7 +33725,7 @@
         <v>45382.61456018518</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33782,7 +33782,7 @@
         <v>45186.38148148148</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33839,7 +33839,7 @@
         <v>46034.48262731481</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33896,7 +33896,7 @@
         <v>45429.61027777778</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33953,7 +33953,7 @@
         <v>45371.52128472222</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34010,7 +34010,7 @@
         <v>46034.46400462963</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34067,7 +34067,7 @@
         <v>45411.41262731481</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34124,7 +34124,7 @@
         <v>45994.7596412037</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>45995</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>45558</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>45995</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34352,7 +34352,7 @@
         <v>44950.63775462963</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34409,7 +34409,7 @@
         <v>45246.35570601852</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         <v>45246.36679398148</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34523,7 +34523,7 @@
         <v>44333.65354166667</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34580,7 +34580,7 @@
         <v>44697</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34637,7 +34637,7 @@
         <v>46041.44270833334</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34694,7 +34694,7 @@
         <v>45580.45979166667</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34751,7 +34751,7 @@
         <v>45159.60880787037</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34808,7 +34808,7 @@
         <v>45541</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34865,7 +34865,7 @@
         <v>44635.56521990741</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34927,7 +34927,7 @@
         <v>45462.36393518518</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34984,7 +34984,7 @@
         <v>44378</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35041,7 +35041,7 @@
         <v>46036</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35098,7 +35098,7 @@
         <v>46001.66449074074</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         <v>45042.59592592593</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35212,7 +35212,7 @@
         <v>46042</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35269,7 +35269,7 @@
         <v>45642</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35326,7 +35326,7 @@
         <v>45352.44460648148</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35383,7 +35383,7 @@
         <v>44970.59310185185</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35440,7 +35440,7 @@
         <v>45568.61333333333</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35497,7 +35497,7 @@
         <v>45145.52710648148</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35554,7 +35554,7 @@
         <v>46042</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35611,7 +35611,7 @@
         <v>45926.56075231481</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35668,7 +35668,7 @@
         <v>45966.64534722222</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35725,7 +35725,7 @@
         <v>44245.46763888889</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35782,7 +35782,7 @@
         <v>44510</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35839,7 +35839,7 @@
         <v>45642</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35896,7 +35896,7 @@
         <v>45642</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35953,7 +35953,7 @@
         <v>45351.53387731482</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36010,7 +36010,7 @@
         <v>45624.70648148148</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36067,7 +36067,7 @@
         <v>46044.63100694444</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36124,7 +36124,7 @@
         <v>45170</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36181,7 +36181,7 @@
         <v>44965</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
         <v>44477</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>45257</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36357,7 +36357,7 @@
         <v>45538.93474537037</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36414,7 +36414,7 @@
         <v>46044.63222222222</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36471,7 +36471,7 @@
         <v>46044.62961805556</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36528,7 +36528,7 @@
         <v>46044.63359953704</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36585,7 +36585,7 @@
         <v>45456.47403935185</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36642,7 +36642,7 @@
         <v>46007.39875</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36699,7 +36699,7 @@
         <v>45616.36583333334</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36756,7 +36756,7 @@
         <v>44421.45346064815</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36813,7 +36813,7 @@
         <v>46048</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36870,7 +36870,7 @@
         <v>44335</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36927,7 +36927,7 @@
         <v>46007.40094907407</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -36984,7 +36984,7 @@
         <v>44363</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37041,7 +37041,7 @@
         <v>46048</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37098,7 +37098,7 @@
         <v>46048</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37155,7 +37155,7 @@
         <v>45737</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37212,7 +37212,7 @@
         <v>46048</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37269,7 +37269,7 @@
         <v>45182.34853009259</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37326,7 +37326,7 @@
         <v>46048</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37383,7 +37383,7 @@
         <v>44489</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37440,7 +37440,7 @@
         <v>45456.50164351852</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37497,7 +37497,7 @@
         <v>46008.64425925926</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37554,7 +37554,7 @@
         <v>46048</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37611,7 +37611,7 @@
         <v>46048</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37668,7 +37668,7 @@
         <v>46048</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37725,7 +37725,7 @@
         <v>46048</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37782,7 +37782,7 @@
         <v>45198</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37839,7 +37839,7 @@
         <v>46048</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37896,7 +37896,7 @@
         <v>46048</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -37953,7 +37953,7 @@
         <v>46048</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38010,7 +38010,7 @@
         <v>46048</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38067,7 +38067,7 @@
         <v>45752</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38129,7 +38129,7 @@
         <v>45752</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38191,7 +38191,7 @@
         <v>44735</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38248,7 +38248,7 @@
         <v>46049.67254629629</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38305,7 +38305,7 @@
         <v>44365</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38362,7 +38362,7 @@
         <v>44460.48165509259</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38419,7 +38419,7 @@
         <v>44460.48445601852</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         <v>46055</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>46052.72417824074</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38590,7 +38590,7 @@
         <v>45153.64658564814</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>45568.36644675926</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>44970</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38761,7 +38761,7 @@
         <v>44970</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38818,7 +38818,7 @@
         <v>44641.62895833333</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38875,7 +38875,7 @@
         <v>46052.72648148148</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38932,7 +38932,7 @@
         <v>46057.64651620371</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -38989,7 +38989,7 @@
         <v>45342</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39051,7 +39051,7 @@
         <v>45737.71368055556</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39108,7 +39108,7 @@
         <v>45737.71565972222</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39165,7 +39165,7 @@
         <v>46057</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39222,7 +39222,7 @@
         <v>45483</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39279,7 +39279,7 @@
         <v>46057.61006944445</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
         <v>45061</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39393,7 +39393,7 @@
         <v>44893</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39450,7 +39450,7 @@
         <v>44539.37798611111</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39507,7 +39507,7 @@
         <v>45084</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39564,7 +39564,7 @@
         <v>44900</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39621,7 +39621,7 @@
         <v>45770.58237268519</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39678,7 +39678,7 @@
         <v>45572</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39735,7 +39735,7 @@
         <v>45002.44173611111</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39792,7 +39792,7 @@
         <v>44847</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39849,7 +39849,7 @@
         <v>46057.95987268518</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39911,7 +39911,7 @@
         <v>45673.48840277778</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>45673.49356481482</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>45432</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40082,7 +40082,7 @@
         <v>45677.69133101852</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40139,7 +40139,7 @@
         <v>45591.52217592593</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40196,7 +40196,7 @@
         <v>45253</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40253,7 +40253,7 @@
         <v>45253.38835648148</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40310,7 +40310,7 @@
         <v>45104.40809027778</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40367,7 +40367,7 @@
         <v>45715.65719907408</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40424,7 +40424,7 @@
         <v>45117</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>45357.36806712963</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40538,7 +40538,7 @@
         <v>45107.43129629629</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40595,7 +40595,7 @@
         <v>45400.58980324074</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40652,7 +40652,7 @@
         <v>44692.36548611111</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40709,7 +40709,7 @@
         <v>45085.54876157407</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40766,7 +40766,7 @@
         <v>45267.39920138889</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40823,7 +40823,7 @@
         <v>44236</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40880,7 +40880,7 @@
         <v>44726.66380787037</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -40937,7 +40937,7 @@
         <v>45351.51993055556</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>45426.66671296296</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41051,7 +41051,7 @@
         <v>44872.66201388889</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41108,7 +41108,7 @@
         <v>45456.67369212963</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41165,7 +41165,7 @@
         <v>45091.6053587963</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41222,7 +41222,7 @@
         <v>45462.36620370371</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41279,7 +41279,7 @@
         <v>45748.6680787037</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41336,7 +41336,7 @@
         <v>44456.73003472222</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41393,7 +41393,7 @@
         <v>44469.33966435185</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41450,7 +41450,7 @@
         <v>45114</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41507,7 +41507,7 @@
         <v>45645.94511574074</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41569,7 +41569,7 @@
         <v>45225.41025462963</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>44302</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41683,7 +41683,7 @@
         <v>45246.36248842593</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41740,7 +41740,7 @@
         <v>45316</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41802,7 +41802,7 @@
         <v>44601.69193287037</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41859,7 +41859,7 @@
         <v>44575</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>44356</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>45170.45903935185</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42030,7 +42030,7 @@
         <v>45334.75275462963</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42087,7 +42087,7 @@
         <v>45169.38462962963</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42144,7 +42144,7 @@
         <v>44729</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42201,7 +42201,7 @@
         <v>44796.5582175926</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>44995.3935300926</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42315,7 +42315,7 @@
         <v>44951.61150462963</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42372,7 +42372,7 @@
         <v>45110.37274305556</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42429,7 +42429,7 @@
         <v>44347.52184027778</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42486,7 +42486,7 @@
         <v>45432</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42543,7 +42543,7 @@
         <v>44530</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42600,7 +42600,7 @@
         <v>44980</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42657,7 +42657,7 @@
         <v>45350.49405092592</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42714,7 +42714,7 @@
         <v>45229.58723379629</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42771,7 +42771,7 @@
         <v>45245.6053587963</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42828,7 +42828,7 @@
         <v>45531</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42885,7 +42885,7 @@
         <v>44454</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -42942,7 +42942,7 @@
         <v>45352.41668981482</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -42999,7 +42999,7 @@
         <v>45208.76167824074</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43056,7 +43056,7 @@
         <v>45110</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43113,7 +43113,7 @@
         <v>45723</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43170,7 +43170,7 @@
         <v>44356.60763888889</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43227,7 +43227,7 @@
         <v>44250</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43284,7 +43284,7 @@
         <v>44756</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43341,7 +43341,7 @@
         <v>45390.56517361111</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43398,7 +43398,7 @@
         <v>45238.69302083334</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43455,7 +43455,7 @@
         <v>44866.47762731482</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43512,7 +43512,7 @@
         <v>44376.4734375</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43569,7 +43569,7 @@
         <v>45406.53234953704</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43626,7 +43626,7 @@
         <v>45414.42009259259</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43683,7 +43683,7 @@
         <v>45229.62975694444</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43740,7 +43740,7 @@
         <v>44651.74671296297</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43797,7 +43797,7 @@
         <v>45342</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43859,7 +43859,7 @@
         <v>45092</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43916,7 +43916,7 @@
         <v>45700</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -43973,7 +43973,7 @@
         <v>44274.45173611111</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44030,7 +44030,7 @@
         <v>45365.43888888889</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44087,7 +44087,7 @@
         <v>45748.91024305556</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44144,7 +44144,7 @@
         <v>45709.36311342593</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44201,7 +44201,7 @@
         <v>45455.49011574074</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44258,7 +44258,7 @@
         <v>45051.01875</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44315,7 +44315,7 @@
         <v>45558.56938657408</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44372,7 +44372,7 @@
         <v>45770.58293981481</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44429,7 +44429,7 @@
         <v>45531.63407407407</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44486,7 +44486,7 @@
         <v>44469.60662037037</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44543,7 +44543,7 @@
         <v>44245</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44600,7 +44600,7 @@
         <v>45671.46665509259</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44657,7 +44657,7 @@
         <v>45707.30634259259</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44714,7 +44714,7 @@
         <v>44813.59078703704</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44771,7 +44771,7 @@
         <v>45162</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44828,7 +44828,7 @@
         <v>45254.67070601852</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44885,7 +44885,7 @@
         <v>45700.32070601852</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -44942,7 +44942,7 @@
         <v>45540</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -44999,7 +44999,7 @@
         <v>45167.62931712963</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45056,7 +45056,7 @@
         <v>44900</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45113,7 +45113,7 @@
         <v>44893.54849537037</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45170,7 +45170,7 @@
         <v>45327</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45227,7 +45227,7 @@
         <v>45624.37628472222</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45284,7 +45284,7 @@
         <v>44712.81100694444</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45341,7 +45341,7 @@
         <v>44834.64751157408</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45398,7 +45398,7 @@
         <v>45229.59815972222</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45455,7 +45455,7 @@
         <v>44967.52363425926</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45512,7 +45512,7 @@
         <v>45544.48355324074</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45569,7 +45569,7 @@
         <v>45635.35322916666</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45626,7 +45626,7 @@
         <v>44277.6359375</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45683,7 +45683,7 @@
         <v>45715.65526620371</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45740,7 +45740,7 @@
         <v>45372.57175925926</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45797,7 +45797,7 @@
         <v>45700.31716435185</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45854,7 +45854,7 @@
         <v>45316.52122685185</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -45911,7 +45911,7 @@
         <v>45643.60391203704</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -45968,7 +45968,7 @@
         <v>44900.39731481481</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46025,7 +46025,7 @@
         <v>45368</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46087,7 +46087,7 @@
         <v>45762.58609953704</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46144,7 +46144,7 @@
         <v>45775.60403935185</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46201,7 +46201,7 @@
         <v>45371.49938657408</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46258,7 +46258,7 @@
         <v>45371.50951388889</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46315,7 +46315,7 @@
         <v>44477</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46372,7 +46372,7 @@
         <v>45254.66980324074</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46429,7 +46429,7 @@
         <v>45593</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46486,7 +46486,7 @@
         <v>45229</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46543,7 +46543,7 @@
         <v>45566</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46600,7 +46600,7 @@
         <v>45035.6530324074</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46657,7 +46657,7 @@
         <v>45775.59795138889</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -46714,7 +46714,7 @@
         <v>45299.84064814815</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -46771,7 +46771,7 @@
         <v>45176</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -46833,7 +46833,7 @@
         <v>45638.69723379629</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -46890,7 +46890,7 @@
         <v>45783.66892361111</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -46947,7 +46947,7 @@
         <v>45783.66291666667</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47004,7 +47004,7 @@
         <v>45588</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47066,7 +47066,7 @@
         <v>45782.36357638889</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47123,7 +47123,7 @@
         <v>45510</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47180,7 +47180,7 @@
         <v>45559.67306712963</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47237,7 +47237,7 @@
         <v>45785.45009259259</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47294,7 +47294,7 @@
         <v>45783.65039351852</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47351,7 +47351,7 @@
         <v>45616.62524305555</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47408,7 +47408,7 @@
         <v>45483</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47465,7 +47465,7 @@
         <v>45680.36707175926</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47522,7 +47522,7 @@
         <v>45616.67680555556</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47579,7 +47579,7 @@
         <v>45225.67229166667</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -47636,7 +47636,7 @@
         <v>45618</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -47693,7 +47693,7 @@
         <v>45786.4771412037</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -47750,7 +47750,7 @@
         <v>45786.58278935185</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -47807,7 +47807,7 @@
         <v>45617.48858796297</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -47864,7 +47864,7 @@
         <v>45726</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -47921,7 +47921,7 @@
         <v>45483</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -47978,7 +47978,7 @@
         <v>45589.41244212963</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48040,7 +48040,7 @@
         <v>45391.34334490741</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48097,7 +48097,7 @@
         <v>45786</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48159,7 +48159,7 @@
         <v>45590.35905092592</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48216,7 +48216,7 @@
         <v>45609</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48273,7 +48273,7 @@
         <v>45743</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48335,7 +48335,7 @@
         <v>45790.88394675926</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48392,7 +48392,7 @@
         <v>45743</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48454,7 +48454,7 @@
         <v>45741</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48511,7 +48511,7 @@
         <v>45793.45373842592</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48568,7 +48568,7 @@
         <v>45559.67861111111</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -48625,7 +48625,7 @@
         <v>45681.37361111111</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -48682,7 +48682,7 @@
         <v>45743</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -48744,7 +48744,7 @@
         <v>44851.88027777777</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>

--- a/Översikt HYLTE.xlsx
+++ b/Översikt HYLTE.xlsx
@@ -575,7 +575,7 @@
         <v>44873</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45960.55587962963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45245</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>45904</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>45099</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44601</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45343.54708333333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>45951</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45951</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45245</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>46048</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>45299</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>44332.8927662037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>45265.62506944445</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>45664.60349537037</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>44261</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>44295</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44306.61185185185</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>44266.43267361111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>44274.36774305555</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>44293.64414351852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         <v>44384.7596412037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>44356.61467592593</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>44481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>44810.32085648148</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>44373.56392361111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>44442</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>44242</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>44256</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>44307</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>44251</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>44454</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>44600.80572916667</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>44557</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>44407</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44529</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44705.55137731481</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44483.62717592593</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>44375</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44488</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>44778</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44455.3215625</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>44336.29427083334</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44475</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>44263</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>44624.50719907408</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>44267</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>44267</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>44267</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>44812.38810185185</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>44638.68053240741</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>44845</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>44498.52659722222</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>44823.50232638889</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>44266.43594907408</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44559.63728009259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44578.78960648148</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44659</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>44770.54641203704</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>44341.49761574074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>44266.43403935185</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>44454</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>44648.7996412037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>44323.50259259259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>44375.65076388889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>44756</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>44651.54018518519</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>44371</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>44501</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44389</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>44265.67184027778</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44651.74912037037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44876</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>44711</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>44487</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44735.37892361111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>44357</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>44477.47153935185</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>44267</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44356</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44356.62792824074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>44489</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>44371</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44266.44005787037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>44834.64466435185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44469</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>44395.92155092592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>44796.56157407408</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>44502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>44336.65660879629</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>44839.40571759259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>44631</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>44659.52917824074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>44876.8518287037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>44644</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>44384.35923611111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>44515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>44778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>44449.47519675926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44455</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>44482.47785879629</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>44482.49334490741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>44867.34995370371</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>44505.61444444444</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>44634</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>44267</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>44363.38550925926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44728.58040509259</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>44770.54723379629</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>44714.34483796296</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>44336.64763888889</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>44448</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>44298</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>44243</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>44795.44545138889</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>44753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>44699.64168981482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>44818.55752314815</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>44801.89085648148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>44596</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>44644.43534722222</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>44523.62166666667</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44500.48740740741</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44727.56915509259</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>44705.55438657408</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44659.49291666667</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44659</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>44757.5672337963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>44494.82555555556</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>44495.59643518519</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>45460.46581018518</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>45002.67559027778</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>45568.61094907407</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>44487</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>45132.34225694444</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44900.59535879629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>45715.78807870371</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>44851.87695601852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44851.88628472222</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>44714</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>45062.64271990741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>44476.50186342592</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>44302</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>45107.56026620371</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44321.46956018519</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>44958.27760416667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>44899.73085648148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>44559</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>45211</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>45548.57417824074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         <v>45254.46633101852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>45254.49128472222</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>45258</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>45229.41303240741</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>45589.32143518519</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>45098.38493055556</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>45254.24417824074</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>45254.24543981482</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>44910.59451388889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>44868</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>45348</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>45104.42195601852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>45684.91756944444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>45539</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>45538</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>44823</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>45737.71179398148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>45352</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>45352.46850694445</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>45600</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44719</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44896.50399305556</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>45733.90141203703</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44887</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>45638.80822916667</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>45840.62119212963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>45825.56289351852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>45424</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>45434</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>45760.48758101852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>45887.49594907407</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>45163.4753587963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>45089</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>45245</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>45673.90599537037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>45252</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>45752</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>45145</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         <v>45834.34462962963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>45687.32655092593</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>45806.2697800926</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>45436</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>45806.27275462963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>45609.90935185185</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>45194.49366898148</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>45889.51666666667</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>45812.44450231481</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>45812.52005787037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>45812.44835648148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>45812.461875</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>44482.49483796296</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>44266</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44701.40556712963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>45182.43619212963</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>45890.61922453704</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>45748.9025</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>45890.53888888889</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>45891</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         <v>45891</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13080,7 +13080,7 @@
         <v>45812.34607638889</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>45706.58739583333</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>45615.9209375</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>44901.36942129629</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         <v>45181</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         <v>45817.46157407408</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13422,7 +13422,7 @@
         <v>44495.58530092592</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13479,7 +13479,7 @@
         <v>44281.63407407407</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>45817</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>45891</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>45694</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>45441.43622685185</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>45441.47888888889</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>45897.90869212963</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>45694.96034722222</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>45839</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>45898.93831018519</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>45897.90677083333</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>45708.39929398148</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>45597.56563657407</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>45387</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>45730.94172453704</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>45841.65174768519</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>45817</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>45820.62440972222</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45310.68920138889</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45229</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44900.43803240741</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45299</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45905</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>45904.42685185185</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45906.50572916667</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>45825.56074074074</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>45825.56381944445</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>44332.88799768518</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45906.50864583333</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>45838.38233796296</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>45825.56527777778</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>45832</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>45910.54612268518</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15365,7 +15365,7 @@
         <v>45777.8774537037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15422,7 +15422,7 @@
         <v>44999.33878472223</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>45910.88354166667</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>45548.56550925926</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>45527</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44236</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44847</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>45919.58478009259</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>45918.38724537037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>45919.57086805555</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>45919.5725</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>45919.32479166667</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>45918.62341435185</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>45831.40982638889</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>45918</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45919.58993055556</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>45922</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>45922.39290509259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>44371.51618055555</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>45922</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16505,7 +16505,7 @@
         <v>44778</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16562,7 +16562,7 @@
         <v>45833</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16619,7 +16619,7 @@
         <v>45359.36799768519</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16676,7 +16676,7 @@
         <v>45173</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16733,7 +16733,7 @@
         <v>45848.62380787037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16790,7 +16790,7 @@
         <v>45132.35609953704</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16847,7 +16847,7 @@
         <v>45924.40980324074</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>45478.34775462963</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>45924.42583333333</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>45891.47208333333</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>45019</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>45926.55349537037</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>45601.55399305555</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>45929.53550925926</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45929.53706018518</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>45926.5547337963</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>45926.55976851852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>45929.63052083334</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45929.62858796296</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>45835.63642361111</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>45254.24484953703</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>45331</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17759,7 +17759,7 @@
         <v>45287.33472222222</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17816,7 +17816,7 @@
         <v>45929.53883101852</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17873,7 +17873,7 @@
         <v>45929.63457175926</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>45558</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>45835.40422453704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>45931.66429398148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>45841.63096064814</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>45838.74873842593</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>45931.6360300926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>45931.63710648148</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>44347.51603009259</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>45841.63418981482</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18443,7 +18443,7 @@
         <v>45930.96792824074</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>45931.600625</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>45931.60741898148</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>45366.54407407407</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>45836.52755787037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18728,7 +18728,7 @@
         <v>45836.61804398148</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18785,7 +18785,7 @@
         <v>45838.41030092593</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18842,7 +18842,7 @@
         <v>45839</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18899,7 +18899,7 @@
         <v>45476.46474537037</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>45836.51347222222</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>45836.52130787037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45933.35831018518</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>45933</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>45840.59165509259</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>45245.57619212963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19303,7 +19303,7 @@
         <v>45840.21756944444</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19365,7 +19365,7 @@
         <v>45933.36384259259</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>45642</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>45936.3324074074</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>45485</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>45560.4652662037</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>45840.64344907407</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>45936.33104166666</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>45936.33180555556</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19821,7 +19821,7 @@
         <v>45840.2062962963</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>45840.69015046296</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>45840.64900462963</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>45840.91797453703</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>45841.64542824074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>45163</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>45840.61630787037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>45674.69728009259</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         <v>45841.6372337963</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20339,7 +20339,7 @@
         <v>45840.66315972222</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45887</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>45938</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>45939.60835648148</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>45939.48560185185</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>45937.37216435185</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20686,7 +20686,7 @@
         <v>45942.69231481481</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20743,7 +20743,7 @@
         <v>44480</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         <v>44865</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20857,7 +20857,7 @@
         <v>45800.43460648148</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20914,7 +20914,7 @@
         <v>45842.43490740741</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>45944</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21028,7 +21028,7 @@
         <v>45944</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21085,7 +21085,7 @@
         <v>45454</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21142,7 +21142,7 @@
         <v>45945.64885416667</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21199,7 +21199,7 @@
         <v>45944</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>45944</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>45847.31618055556</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>45847.32033564815</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>45845.834375</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>45845.8321875</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>45846</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21603,7 +21603,7 @@
         <v>44701.34938657407</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>45300.36232638889</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>45846</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>45846</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45848.63644675926</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>44274.44606481482</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21965,7 +21965,7 @@
         <v>45803.45482638889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>45853.60252314815</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22079,7 +22079,7 @@
         <v>45456.49001157407</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22136,7 +22136,7 @@
         <v>45429.38091435185</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
         <v>45405.35324074074</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22250,7 +22250,7 @@
         <v>44797.45368055555</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22307,7 +22307,7 @@
         <v>45035.65569444445</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>45866.55670138889</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>45700.31226851852</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45700.31631944444</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>45259</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>45169.63672453703</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>45104.36805555555</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>45957.39216435186</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>45951</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22820,7 +22820,7 @@
         <v>45687.54509259259</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44900.4021875</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22934,7 +22934,7 @@
         <v>45951</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22991,7 +22991,7 @@
         <v>44739.55142361111</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>45190.59511574074</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>45293</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23162,7 +23162,7 @@
         <v>45392</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23219,7 +23219,7 @@
         <v>45630</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23276,7 +23276,7 @@
         <v>45145.58725694445</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>45957.39133101852</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23390,7 +23390,7 @@
         <v>45623</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>45791</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>44917.60630787037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>44322</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>45190</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23680,7 +23680,7 @@
         <v>44340</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>45524</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23794,7 +23794,7 @@
         <v>45524</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         <v>45517</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23908,7 +23908,7 @@
         <v>45545.86592592593</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23965,7 +23965,7 @@
         <v>45702</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>45204.83961805556</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>45395.39934027778</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>45541</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>45561</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>45677</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>45589</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>45727</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24426,7 +24426,7 @@
         <v>45252</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>45257</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>45309</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>45245</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>45288</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44896.50284722223</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44592</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>45407</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44322</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>45589</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>45951</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25058,7 +25058,7 @@
         <v>45623</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25115,7 +25115,7 @@
         <v>45769.61311342593</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>45672.70796296297</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>45672.70996527778</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>45799</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>45524</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>44508</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25457,7 +25457,7 @@
         <v>44384</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>44889</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45199.83810185185</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>44671</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25685,7 +25685,7 @@
         <v>45176</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45199.83545138889</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>45372</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>45372</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25913,7 +25913,7 @@
         <v>45665.55378472222</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>45819</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26027,7 +26027,7 @@
         <v>44712</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26084,7 +26084,7 @@
         <v>45395.4019675926</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26141,7 +26141,7 @@
         <v>44739.55359953704</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26198,7 +26198,7 @@
         <v>45230</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26255,7 +26255,7 @@
         <v>45672</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26312,7 +26312,7 @@
         <v>44701.5594212963</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26369,7 +26369,7 @@
         <v>45791</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26426,7 +26426,7 @@
         <v>45677</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>45361.72229166667</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26540,7 +26540,7 @@
         <v>45735</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26597,7 +26597,7 @@
         <v>45610</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26654,7 +26654,7 @@
         <v>45679</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>44974.38300925926</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26768,7 +26768,7 @@
         <v>45735</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26825,7 +26825,7 @@
         <v>44483</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26882,7 +26882,7 @@
         <v>45617.47813657407</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26939,7 +26939,7 @@
         <v>45959.66341435185</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26996,7 +26996,7 @@
         <v>45272.66641203704</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27053,7 +27053,7 @@
         <v>45309</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27110,7 +27110,7 @@
         <v>45432</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27167,7 +27167,7 @@
         <v>45162.45288194445</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27224,7 +27224,7 @@
         <v>45293</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27281,7 +27281,7 @@
         <v>44483</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27338,7 +27338,7 @@
         <v>44476</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27395,7 +27395,7 @@
         <v>44238</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>44671</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27509,7 +27509,7 @@
         <v>45603</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27566,7 +27566,7 @@
         <v>45131</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27623,7 +27623,7 @@
         <v>45574</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27680,7 +27680,7 @@
         <v>45589</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27737,7 +27737,7 @@
         <v>45546.28277777778</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27794,7 +27794,7 @@
         <v>45618</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27851,7 +27851,7 @@
         <v>45623</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>45517</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27965,7 +27965,7 @@
         <v>44694.42996527778</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28022,7 +28022,7 @@
         <v>45502.46032407408</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28079,7 +28079,7 @@
         <v>45838.38613425926</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28136,7 +28136,7 @@
         <v>44817</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28193,7 +28193,7 @@
         <v>45257</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>45245</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28312,7 +28312,7 @@
         <v>45692</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28369,7 +28369,7 @@
         <v>44974</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28426,7 +28426,7 @@
         <v>44964</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28483,7 +28483,7 @@
         <v>45091</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28540,7 +28540,7 @@
         <v>45790.37271990741</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28597,7 +28597,7 @@
         <v>44926.32438657407</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44455.40655092592</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>45876.63390046296</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>45604.37665509259</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>45097</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>44277.63270833333</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>45477.83650462963</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>45265.63447916666</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>45938.6012962963</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>45961.49508101852</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>45084</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29229,7 +29229,7 @@
         <v>45877</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>45922</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>45880.5372337963</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>45880.41700231482</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>45880</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29514,7 +29514,7 @@
         <v>45880.41631944444</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29571,7 +29571,7 @@
         <v>45880.42084490741</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29628,7 +29628,7 @@
         <v>45880</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>45960.68140046296</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>45960.68377314815</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29799,7 +29799,7 @@
         <v>45961.39516203704</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29856,7 +29856,7 @@
         <v>45961.48678240741</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29913,7 +29913,7 @@
         <v>45751</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29975,7 +29975,7 @@
         <v>44236</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30032,7 +30032,7 @@
         <v>45880</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30089,7 +30089,7 @@
         <v>44953.47414351852</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         <v>45019.47556712963</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30203,7 +30203,7 @@
         <v>45880.53280092592</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30260,7 +30260,7 @@
         <v>45880.53618055556</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30317,7 +30317,7 @@
         <v>45880.53783564815</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30374,7 +30374,7 @@
         <v>45299</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30431,7 +30431,7 @@
         <v>45880</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30488,7 +30488,7 @@
         <v>45880.53377314815</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30545,7 +30545,7 @@
         <v>45880.53457175926</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30602,7 +30602,7 @@
         <v>45880.53542824074</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30659,7 +30659,7 @@
         <v>45645.71857638889</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30716,7 +30716,7 @@
         <v>45436</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30773,7 +30773,7 @@
         <v>45366</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         <v>45505</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30892,7 +30892,7 @@
         <v>44903</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30949,7 +30949,7 @@
         <v>45972.44842592593</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31006,7 +31006,7 @@
         <v>45972</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31063,7 +31063,7 @@
         <v>45972.35881944445</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>45096.35314814815</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31177,7 +31177,7 @@
         <v>45167</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31234,7 +31234,7 @@
         <v>45645.89479166667</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>45352.42900462963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>45975.675625</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>45978.37584490741</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
         <v>45979.6125462963</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31524,7 +31524,7 @@
         <v>45978.37863425926</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         <v>45254</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31638,7 +31638,7 @@
         <v>45254.67153935185</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31695,7 +31695,7 @@
         <v>45593</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31752,7 +31752,7 @@
         <v>45203.51585648148</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31809,7 +31809,7 @@
         <v>44481.57100694445</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31866,7 +31866,7 @@
         <v>45979</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31923,7 +31923,7 @@
         <v>44750.51511574074</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -31980,7 +31980,7 @@
         <v>45981</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32037,7 +32037,7 @@
         <v>45981</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32094,7 +32094,7 @@
         <v>44714.33734953704</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32151,7 +32151,7 @@
         <v>45153</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32213,7 +32213,7 @@
         <v>45980.60736111111</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32270,7 +32270,7 @@
         <v>45441.46991898148</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32327,7 +32327,7 @@
         <v>45441.47077546296</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32384,7 +32384,7 @@
         <v>45441.47675925926</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32441,7 +32441,7 @@
         <v>45377.67119212963</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32503,7 +32503,7 @@
         <v>46020.62300925926</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32560,7 +32560,7 @@
         <v>45170.44670138889</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32617,7 +32617,7 @@
         <v>45987.59237268518</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32674,7 +32674,7 @@
         <v>44869</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32731,7 +32731,7 @@
         <v>44266.43890046296</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32793,7 +32793,7 @@
         <v>45754.47988425926</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32850,7 +32850,7 @@
         <v>45987</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32907,7 +32907,7 @@
         <v>45268.56440972222</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32964,7 +32964,7 @@
         <v>46030.71700231481</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33021,7 +33021,7 @@
         <v>45441.43418981481</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33083,7 +33083,7 @@
         <v>45989</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33140,7 +33140,7 @@
         <v>45989.57967592592</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33197,7 +33197,7 @@
         <v>45597.56770833334</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33254,7 +33254,7 @@
         <v>46030.62461805555</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33311,7 +33311,7 @@
         <v>45092</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33368,7 +33368,7 @@
         <v>46031.62175925926</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33430,7 +33430,7 @@
         <v>46030</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33487,7 +33487,7 @@
         <v>46031.61980324074</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33549,7 +33549,7 @@
         <v>46031.62116898148</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33611,7 +33611,7 @@
         <v>44405.6525</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33668,7 +33668,7 @@
         <v>45378.45703703703</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33725,7 +33725,7 @@
         <v>45382.61456018518</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33782,7 +33782,7 @@
         <v>45186.38148148148</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33839,7 +33839,7 @@
         <v>46034.48262731481</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33896,7 +33896,7 @@
         <v>45429.61027777778</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33953,7 +33953,7 @@
         <v>45371.52128472222</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34010,7 +34010,7 @@
         <v>46034.46400462963</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34067,7 +34067,7 @@
         <v>45411.41262731481</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34124,7 +34124,7 @@
         <v>45994.7596412037</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>45995</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>45558</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>45995</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34352,7 +34352,7 @@
         <v>44950.63775462963</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34409,7 +34409,7 @@
         <v>45246.35570601852</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         <v>45246.36679398148</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34523,7 +34523,7 @@
         <v>44333.65354166667</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34580,7 +34580,7 @@
         <v>44697</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34637,7 +34637,7 @@
         <v>46041.44270833334</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34694,7 +34694,7 @@
         <v>45580.45979166667</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34751,7 +34751,7 @@
         <v>45159.60880787037</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34808,7 +34808,7 @@
         <v>45541</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34865,7 +34865,7 @@
         <v>44635.56521990741</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34927,7 +34927,7 @@
         <v>45462.36393518518</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34984,7 +34984,7 @@
         <v>44378</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35041,7 +35041,7 @@
         <v>46036</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35098,7 +35098,7 @@
         <v>46001.66449074074</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         <v>45042.59592592593</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35212,7 +35212,7 @@
         <v>46042</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35269,7 +35269,7 @@
         <v>45642</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35326,7 +35326,7 @@
         <v>45352.44460648148</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35383,7 +35383,7 @@
         <v>44970.59310185185</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35440,7 +35440,7 @@
         <v>45568.61333333333</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35497,7 +35497,7 @@
         <v>45145.52710648148</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35554,7 +35554,7 @@
         <v>46042</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35611,7 +35611,7 @@
         <v>45926.56075231481</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35668,7 +35668,7 @@
         <v>45966.64534722222</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35725,7 +35725,7 @@
         <v>44245.46763888889</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35782,7 +35782,7 @@
         <v>44510</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35839,7 +35839,7 @@
         <v>45642</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35896,7 +35896,7 @@
         <v>45642</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35953,7 +35953,7 @@
         <v>45351.53387731482</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36010,7 +36010,7 @@
         <v>45624.70648148148</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36067,7 +36067,7 @@
         <v>46044.63100694444</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36124,7 +36124,7 @@
         <v>45170</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36181,7 +36181,7 @@
         <v>44965</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
         <v>44477</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>45257</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36357,7 +36357,7 @@
         <v>45538.93474537037</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36414,7 +36414,7 @@
         <v>46044.63222222222</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36471,7 +36471,7 @@
         <v>46044.62961805556</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36528,7 +36528,7 @@
         <v>46044.63359953704</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36585,7 +36585,7 @@
         <v>45456.47403935185</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36642,7 +36642,7 @@
         <v>46007.39875</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36699,7 +36699,7 @@
         <v>45616.36583333334</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36756,7 +36756,7 @@
         <v>44421.45346064815</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36813,7 +36813,7 @@
         <v>46048</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36870,7 +36870,7 @@
         <v>44335</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36927,7 +36927,7 @@
         <v>46007.40094907407</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -36984,7 +36984,7 @@
         <v>44363</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37041,7 +37041,7 @@
         <v>46048</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37098,7 +37098,7 @@
         <v>46048</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37155,7 +37155,7 @@
         <v>45737</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37212,7 +37212,7 @@
         <v>46048</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37269,7 +37269,7 @@
         <v>45182.34853009259</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37326,7 +37326,7 @@
         <v>46048</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37383,7 +37383,7 @@
         <v>44489</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37440,7 +37440,7 @@
         <v>45456.50164351852</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37497,7 +37497,7 @@
         <v>46008.64425925926</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37554,7 +37554,7 @@
         <v>46048</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37611,7 +37611,7 @@
         <v>46048</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37668,7 +37668,7 @@
         <v>46048</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37725,7 +37725,7 @@
         <v>46048</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37782,7 +37782,7 @@
         <v>45198</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37839,7 +37839,7 @@
         <v>46048</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37896,7 +37896,7 @@
         <v>46048</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -37953,7 +37953,7 @@
         <v>46048</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38010,7 +38010,7 @@
         <v>46048</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38067,7 +38067,7 @@
         <v>45752</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38129,7 +38129,7 @@
         <v>45752</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38191,7 +38191,7 @@
         <v>44735</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38248,7 +38248,7 @@
         <v>46049.67254629629</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38305,7 +38305,7 @@
         <v>44365</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38362,7 +38362,7 @@
         <v>44460.48165509259</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38419,7 +38419,7 @@
         <v>44460.48445601852</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         <v>46055</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>46052.72417824074</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38590,7 +38590,7 @@
         <v>45153.64658564814</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>45568.36644675926</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>44970</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38761,7 +38761,7 @@
         <v>44970</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38818,7 +38818,7 @@
         <v>44641.62895833333</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38875,7 +38875,7 @@
         <v>46052.72648148148</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38932,7 +38932,7 @@
         <v>46057.64651620371</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -38989,7 +38989,7 @@
         <v>45342</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39051,7 +39051,7 @@
         <v>45737.71368055556</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39108,7 +39108,7 @@
         <v>45737.71565972222</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39165,7 +39165,7 @@
         <v>46057</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39222,7 +39222,7 @@
         <v>45483</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39279,7 +39279,7 @@
         <v>46057.61006944445</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
         <v>45061</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39393,7 +39393,7 @@
         <v>44893</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39450,7 +39450,7 @@
         <v>44539.37798611111</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39507,7 +39507,7 @@
         <v>45084</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39564,7 +39564,7 @@
         <v>44900</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39621,7 +39621,7 @@
         <v>45770.58237268519</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39678,7 +39678,7 @@
         <v>45572</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39735,7 +39735,7 @@
         <v>45002.44173611111</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39792,7 +39792,7 @@
         <v>44847</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39849,7 +39849,7 @@
         <v>46057.95987268518</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39911,7 +39911,7 @@
         <v>45673.48840277778</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>45673.49356481482</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>45432</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40082,7 +40082,7 @@
         <v>45677.69133101852</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40139,7 +40139,7 @@
         <v>45591.52217592593</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40196,7 +40196,7 @@
         <v>45253</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40253,7 +40253,7 @@
         <v>45253.38835648148</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40310,7 +40310,7 @@
         <v>45104.40809027778</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40367,7 +40367,7 @@
         <v>45715.65719907408</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40424,7 +40424,7 @@
         <v>45117</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>45357.36806712963</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40538,7 +40538,7 @@
         <v>45107.43129629629</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40595,7 +40595,7 @@
         <v>45400.58980324074</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40652,7 +40652,7 @@
         <v>44692.36548611111</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40709,7 +40709,7 @@
         <v>45085.54876157407</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40766,7 +40766,7 @@
         <v>45267.39920138889</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40823,7 +40823,7 @@
         <v>44236</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40880,7 +40880,7 @@
         <v>44726.66380787037</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -40937,7 +40937,7 @@
         <v>45351.51993055556</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>45426.66671296296</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41051,7 +41051,7 @@
         <v>44872.66201388889</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41108,7 +41108,7 @@
         <v>45456.67369212963</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41165,7 +41165,7 @@
         <v>45091.6053587963</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41222,7 +41222,7 @@
         <v>45462.36620370371</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41279,7 +41279,7 @@
         <v>45748.6680787037</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41336,7 +41336,7 @@
         <v>44456.73003472222</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41393,7 +41393,7 @@
         <v>44469.33966435185</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41450,7 +41450,7 @@
         <v>45114</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41507,7 +41507,7 @@
         <v>45645.94511574074</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41569,7 +41569,7 @@
         <v>45225.41025462963</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>44302</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41683,7 +41683,7 @@
         <v>45246.36248842593</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41740,7 +41740,7 @@
         <v>45316</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41802,7 +41802,7 @@
         <v>44601.69193287037</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41859,7 +41859,7 @@
         <v>44575</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>44356</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>45170.45903935185</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42030,7 +42030,7 @@
         <v>45334.75275462963</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42087,7 +42087,7 @@
         <v>45169.38462962963</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42144,7 +42144,7 @@
         <v>44729</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42201,7 +42201,7 @@
         <v>44796.5582175926</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>44995.3935300926</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42315,7 +42315,7 @@
         <v>44951.61150462963</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42372,7 +42372,7 @@
         <v>45110.37274305556</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42429,7 +42429,7 @@
         <v>44347.52184027778</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42486,7 +42486,7 @@
         <v>45432</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42543,7 +42543,7 @@
         <v>44530</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42600,7 +42600,7 @@
         <v>44980</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42657,7 +42657,7 @@
         <v>45350.49405092592</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42714,7 +42714,7 @@
         <v>45229.58723379629</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42771,7 +42771,7 @@
         <v>45245.6053587963</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42828,7 +42828,7 @@
         <v>45531</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42885,7 +42885,7 @@
         <v>44454</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -42942,7 +42942,7 @@
         <v>45352.41668981482</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -42999,7 +42999,7 @@
         <v>45208.76167824074</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43056,7 +43056,7 @@
         <v>45110</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43113,7 +43113,7 @@
         <v>45723</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43170,7 +43170,7 @@
         <v>44356.60763888889</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43227,7 +43227,7 @@
         <v>44250</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43284,7 +43284,7 @@
         <v>44756</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43341,7 +43341,7 @@
         <v>45390.56517361111</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43398,7 +43398,7 @@
         <v>45238.69302083334</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43455,7 +43455,7 @@
         <v>44866.47762731482</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43512,7 +43512,7 @@
         <v>44376.4734375</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43569,7 +43569,7 @@
         <v>45406.53234953704</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43626,7 +43626,7 @@
         <v>45414.42009259259</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43683,7 +43683,7 @@
         <v>45229.62975694444</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43740,7 +43740,7 @@
         <v>44651.74671296297</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43797,7 +43797,7 @@
         <v>45342</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43859,7 +43859,7 @@
         <v>45092</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43916,7 +43916,7 @@
         <v>45700</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -43973,7 +43973,7 @@
         <v>44274.45173611111</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44030,7 +44030,7 @@
         <v>45365.43888888889</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44087,7 +44087,7 @@
         <v>45748.91024305556</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44144,7 +44144,7 @@
         <v>45709.36311342593</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44201,7 +44201,7 @@
         <v>45455.49011574074</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44258,7 +44258,7 @@
         <v>45051.01875</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44315,7 +44315,7 @@
         <v>45558.56938657408</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44372,7 +44372,7 @@
         <v>45770.58293981481</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44429,7 +44429,7 @@
         <v>45531.63407407407</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44486,7 +44486,7 @@
         <v>44469.60662037037</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44543,7 +44543,7 @@
         <v>44245</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44600,7 +44600,7 @@
         <v>45671.46665509259</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44657,7 +44657,7 @@
         <v>45707.30634259259</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44714,7 +44714,7 @@
         <v>44813.59078703704</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44771,7 +44771,7 @@
         <v>45162</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44828,7 +44828,7 @@
         <v>45254.67070601852</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44885,7 +44885,7 @@
         <v>45700.32070601852</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -44942,7 +44942,7 @@
         <v>45540</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -44999,7 +44999,7 @@
         <v>45167.62931712963</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45056,7 +45056,7 @@
         <v>44900</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45113,7 +45113,7 @@
         <v>44893.54849537037</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45170,7 +45170,7 @@
         <v>45327</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45227,7 +45227,7 @@
         <v>45624.37628472222</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45284,7 +45284,7 @@
         <v>44712.81100694444</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45341,7 +45341,7 @@
         <v>44834.64751157408</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45398,7 +45398,7 @@
         <v>45229.59815972222</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45455,7 +45455,7 @@
         <v>44967.52363425926</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45512,7 +45512,7 @@
         <v>45544.48355324074</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45569,7 +45569,7 @@
         <v>45635.35322916666</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45626,7 +45626,7 @@
         <v>44277.6359375</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45683,7 +45683,7 @@
         <v>45715.65526620371</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45740,7 +45740,7 @@
         <v>45372.57175925926</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45797,7 +45797,7 @@
         <v>45700.31716435185</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45854,7 +45854,7 @@
         <v>45316.52122685185</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -45911,7 +45911,7 @@
         <v>45643.60391203704</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -45968,7 +45968,7 @@
         <v>44900.39731481481</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46025,7 +46025,7 @@
         <v>45368</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46087,7 +46087,7 @@
         <v>45762.58609953704</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46144,7 +46144,7 @@
         <v>45775.60403935185</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46201,7 +46201,7 @@
         <v>45371.49938657408</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46258,7 +46258,7 @@
         <v>45371.50951388889</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46315,7 +46315,7 @@
         <v>44477</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46372,7 +46372,7 @@
         <v>45254.66980324074</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46429,7 +46429,7 @@
         <v>45593</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46486,7 +46486,7 @@
         <v>45229</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46543,7 +46543,7 @@
         <v>45566</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46600,7 +46600,7 @@
         <v>45035.6530324074</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46657,7 +46657,7 @@
         <v>45775.59795138889</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -46714,7 +46714,7 @@
         <v>45299.84064814815</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -46771,7 +46771,7 @@
         <v>45176</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -46833,7 +46833,7 @@
         <v>45638.69723379629</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -46890,7 +46890,7 @@
         <v>45783.66892361111</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -46947,7 +46947,7 @@
         <v>45783.66291666667</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47004,7 +47004,7 @@
         <v>45588</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47066,7 +47066,7 @@
         <v>45782.36357638889</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47123,7 +47123,7 @@
         <v>45510</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47180,7 +47180,7 @@
         <v>45559.67306712963</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47237,7 +47237,7 @@
         <v>45785.45009259259</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47294,7 +47294,7 @@
         <v>45783.65039351852</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47351,7 +47351,7 @@
         <v>45616.62524305555</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47408,7 +47408,7 @@
         <v>45483</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47465,7 +47465,7 @@
         <v>45680.36707175926</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47522,7 +47522,7 @@
         <v>45616.67680555556</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47579,7 +47579,7 @@
         <v>45225.67229166667</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -47636,7 +47636,7 @@
         <v>45618</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -47693,7 +47693,7 @@
         <v>45786.4771412037</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -47750,7 +47750,7 @@
         <v>45786.58278935185</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -47807,7 +47807,7 @@
         <v>45617.48858796297</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -47864,7 +47864,7 @@
         <v>45726</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -47921,7 +47921,7 @@
         <v>45483</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -47978,7 +47978,7 @@
         <v>45589.41244212963</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48040,7 +48040,7 @@
         <v>45391.34334490741</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48097,7 +48097,7 @@
         <v>45786</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48159,7 +48159,7 @@
         <v>45590.35905092592</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48216,7 +48216,7 @@
         <v>45609</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48273,7 +48273,7 @@
         <v>45743</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48335,7 +48335,7 @@
         <v>45790.88394675926</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48392,7 +48392,7 @@
         <v>45743</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48454,7 +48454,7 @@
         <v>45741</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48511,7 +48511,7 @@
         <v>45793.45373842592</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48568,7 +48568,7 @@
         <v>45559.67861111111</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -48625,7 +48625,7 @@
         <v>45681.37361111111</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -48682,7 +48682,7 @@
         <v>45743</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -48744,7 +48744,7 @@
         <v>44851.88027777777</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>

--- a/Översikt HYLTE.xlsx
+++ b/Översikt HYLTE.xlsx
@@ -575,7 +575,7 @@
         <v>44873</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45960.55587962963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45245</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>45099</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>45904</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44601</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45343.54708333333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>45951</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45951</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45245</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>46048</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>45299</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>44332.8927662037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>45265.62506944445</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>45664.60349537037</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>44261</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>44295</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44306.61185185185</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>44266.43267361111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>44274.36774305555</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>44384.7596412037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         <v>44293.64414351852</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>44356.61467592593</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>44810.32085648148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>44373.56392361111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>44442</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>44481</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>44307</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>44256</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>44251</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>44454</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>44600.80572916667</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>44529</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>44557</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>44407</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44705.55137731481</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44483.62717592593</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44375</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>44778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44488</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>44455.3215625</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44336.29427083334</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>44475</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44263</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>44267</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>44267</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>44267</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>44624.50719907408</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>44638.68053240741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>44812.38810185185</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>44498.52659722222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>44845</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>44823.50232638889</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>44266.43594907408</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44559.63728009259</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44578.78960648148</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44659</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>44770.54641203704</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>44341.49761574074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>44266.43403935185</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>44454</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>44648.7996412037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>44375.65076388889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>44323.50259259259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>44756</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>44651.54018518519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>44501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>44371</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>44389</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44651.74912037037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>44876</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44265.67184027778</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44711</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>44735.37892361111</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>44357</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44487</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>44477.47153935185</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>44267</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44356</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44356.62792824074</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>44371</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>44266.44005787037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>44834.64466435185</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>44469</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44796.56157407408</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>44395.92155092592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>44502</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>44336.65660879629</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>44839.40571759259</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>44631</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>44876.8518287037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>44659.52917824074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>44644</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>44384.35923611111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>44515</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>44778</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>44449.47519675926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>44455</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44482.47785879629</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>44482.49334490741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>44867.34995370371</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>44505.61444444444</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>44634</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>44267</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>44363.38550925926</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>44728.58040509259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44770.54723379629</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>44714.34483796296</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>44336.64763888889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>44448</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>44298</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>44753</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>44795.44545138889</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>44699.64168981482</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>44818.55752314815</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>44801.89085648148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>44596</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>44644.43534722222</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>44523.62166666667</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>44500.48740740741</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>44727.56915509259</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44705.55438657408</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44757.5672337963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>44494.82555555556</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44659.49291666667</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44659</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>44495.59643518519</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>45460.46581018518</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>45132.34225694444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>45002.67559027778</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>45715.78807870371</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44714</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>45568.61094907407</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>45062.64271990741</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44900.59535879629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>44302</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>44476.50186342592</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44958.27760416667</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>44899.73085648148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>45107.56026620371</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>44487</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>44321.46956018519</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44851.87695601852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44851.88628472222</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>44559</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>45211</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>45548.57417824074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>45258</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>45229.41303240741</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         <v>45254.46633101852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>45254.49128472222</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>45589.32143518519</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>45254.24417824074</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>45254.24543981482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>45098.38493055556</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>44868</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44910.59451388889</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>45348</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>44823</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>45104.42195601852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>45684.91756944444</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>45539</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>45538</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>45600</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>45737.71179398148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>45352</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>45352.46850694445</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>44719</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>45638.80822916667</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44896.50399305556</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>45733.90141203703</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>45424</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>45434</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44887</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>45163.4753587963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>45752</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>45145</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>45252</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>45089</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>45245</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>45194.49366898148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>44482.49483796296</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>44266</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>45817.46157407408</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>44701.40556712963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11759,7 +11759,7 @@
         <v>45182.43619212963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11816,7 +11816,7 @@
         <v>45817</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11873,7 +11873,7 @@
         <v>45840.62119212963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11930,7 +11930,7 @@
         <v>45825.56289351852</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11987,7 +11987,7 @@
         <v>45615.9209375</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44901.36942129629</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>45694.96034722222</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>45181</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>45760.48758101852</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>45887.49594907407</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>44495.58530092592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>44281.63407407407</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>45708.39929398148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>45597.56563657407</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>45387</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>45673.90599537037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>45730.94172453704</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>45817</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>45694</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>45834.34462962963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>45441.43622685185</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>45441.47888888889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         <v>45820.62440972222</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>45687.32655092593</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         <v>44900.43803240741</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>45436</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>45825.56074074074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>45310.68920138889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>45825.56381944445</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>45229</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>45825.56527777778</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>45889.51666666667</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>45890.61922453704</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>45548.56550925926</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>45748.9025</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>45890.53888888889</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>45891</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13878,7 +13878,7 @@
         <v>45891</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>44332.88799768518</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>45831.40982638889</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>44999.33878472223</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>45833</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>45891</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>45527</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>45897.90869212963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>45839</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>45898.93831018519</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>45897.90677083333</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45601.55399305555</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45841.65174768519</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45835.63642361111</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>44847</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45835.40422453704</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>45838.74873842593</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45299</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>45836.52755787037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>45838.41030092593</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>45839</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45905</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>44371.51618055555</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>44778</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>45904.42685185185</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>45906.50572916667</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15365,7 +15365,7 @@
         <v>45359.36799768519</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15422,7 +15422,7 @@
         <v>45836.51347222222</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>45836.52130787037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>45173</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>45840.59165509259</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>45840.21756944444</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15712,7 +15712,7 @@
         <v>45840.64344907407</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>45840.2062962963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15831,7 +15831,7 @@
         <v>45840.69015046296</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>45906.50864583333</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>45840.64900462963</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16002,7 +16002,7 @@
         <v>45838.38233796296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16059,7 +16059,7 @@
         <v>45840.91797453703</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16116,7 +16116,7 @@
         <v>45841.64542824074</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         <v>45840.61630787037</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16230,7 +16230,7 @@
         <v>45841.6372337963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16287,7 +16287,7 @@
         <v>45832</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>45840.66315972222</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>45132.35609953704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>45478.34775462963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>45910.54612268518</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>45019</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>45777.8774537037</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>45800.43460648148</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>45842.43490740741</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>45910.88354166667</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>45847.31618055556</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>45847.32033564815</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>45845.834375</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>45845.8321875</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45254.24484953703</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17142,7 +17142,7 @@
         <v>45846</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17204,7 +17204,7 @@
         <v>45331</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17261,7 +17261,7 @@
         <v>45287.33472222222</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17318,7 +17318,7 @@
         <v>45846</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         <v>45846</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17442,7 +17442,7 @@
         <v>45558</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17499,7 +17499,7 @@
         <v>45848.63644675926</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>44347.51603009259</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45803.45482638889</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45853.60252314815</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45919.58478009259</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45366.54407407407</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>45918.38724537037</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>45919.57086805555</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>45919.5725</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>45919.32479166667</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>45918.62341435185</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>45476.46474537037</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>45918</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>45919.58993055556</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>45245.57619212963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45922</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45922.39290509259</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45922</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>45642</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>45485</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>45560.4652662037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>45848.62380787037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>45866.55670138889</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>45700.31226851852</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18877,7 +18877,7 @@
         <v>45924.40980324074</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
         <v>45700.31631944444</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>45163</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>45924.42583333333</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>45891.47208333333</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>45674.69728009259</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>45926.55349537037</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>45687.54509259259</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>44739.55142361111</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>45190.59511574074</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>45293</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>45392</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>45630</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>45145.58725694445</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>45929.53550925926</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>45929.53706018518</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>45623</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>45791</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>45926.5547337963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>45926.55976851852</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>45929.63052083334</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>44917.60630787037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>44322</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>45190</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20250,7 +20250,7 @@
         <v>44340</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>45524</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>45524</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         <v>45517</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>45545.86592592593</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20535,7 +20535,7 @@
         <v>45204.83961805556</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>45929.62858796296</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>45395.39934027778</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45541</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>45561</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>45677</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>45589</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>45727</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>45252</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>45257</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45309</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45245</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45288</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21281,7 +21281,7 @@
         <v>44896.50284722223</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>44592</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>45407</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44322</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>45589</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>45623</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>45769.61311342593</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>45672.70796296297</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>45672.70996527778</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>45799</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>45524</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>44508</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21965,7 +21965,7 @@
         <v>44384</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>44889</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22079,7 +22079,7 @@
         <v>45199.83810185185</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22136,7 +22136,7 @@
         <v>44671</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
         <v>45176</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22250,7 +22250,7 @@
         <v>45199.83545138889</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22307,7 +22307,7 @@
         <v>45372</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>45372</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>45665.55378472222</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45819</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44712</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>45395.4019675926</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44739.55359953704</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>45230</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>45672</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22820,7 +22820,7 @@
         <v>44701.5594212963</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44480</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22934,7 +22934,7 @@
         <v>45791</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22991,7 +22991,7 @@
         <v>45677</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>44865</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>45361.72229166667</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23162,7 +23162,7 @@
         <v>45735</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23219,7 +23219,7 @@
         <v>45610</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23276,7 +23276,7 @@
         <v>45929.53883101852</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>45929.63457175926</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23390,7 +23390,7 @@
         <v>45679</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>45735</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>44483</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>45272.66641203704</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>45309</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>45432</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23732,7 +23732,7 @@
         <v>45293</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>44483</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>44476</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>44671</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>45603</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>45131</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>45574</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>45589</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>45546.28277777778</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24245,7 +24245,7 @@
         <v>45618</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24302,7 +24302,7 @@
         <v>45623</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24359,7 +24359,7 @@
         <v>45517</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>45838.38613425926</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>44817</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>45257</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24592,7 +24592,7 @@
         <v>45245</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24649,7 +24649,7 @@
         <v>45692</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         <v>44964</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24763,7 +24763,7 @@
         <v>45931.66429398148</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24820,7 +24820,7 @@
         <v>45841.63096064814</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24877,7 +24877,7 @@
         <v>45790.37271990741</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>45931.6360300926</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>45931.63710648148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>45841.63418981482</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25105,7 +25105,7 @@
         <v>45930.96792824074</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25162,7 +25162,7 @@
         <v>45931.600625</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         <v>45931.60741898148</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25276,7 +25276,7 @@
         <v>45454</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25333,7 +25333,7 @@
         <v>45876.63390046296</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>44701.34938657407</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>45933.35831018518</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>45300.36232638889</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>45877</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25623,7 +25623,7 @@
         <v>45880.5372337963</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>45880.41700231482</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25737,7 +25737,7 @@
         <v>45880</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25794,7 +25794,7 @@
         <v>45880.41631944444</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25851,7 +25851,7 @@
         <v>45933</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25908,7 +25908,7 @@
         <v>45880.42084490741</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         <v>45880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26022,7 +26022,7 @@
         <v>45933.36384259259</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26079,7 +26079,7 @@
         <v>44274.44606481482</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26136,7 +26136,7 @@
         <v>45880</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26193,7 +26193,7 @@
         <v>45880.53280092592</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         <v>45880.53618055556</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         <v>45880.53783564815</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26364,7 +26364,7 @@
         <v>45456.49001157407</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26421,7 +26421,7 @@
         <v>45880</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26478,7 +26478,7 @@
         <v>45880.53377314815</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26535,7 +26535,7 @@
         <v>45880.53457175926</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26592,7 +26592,7 @@
         <v>45880.53542824074</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26649,7 +26649,7 @@
         <v>45936.3324074074</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         <v>45936.33104166666</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26763,7 +26763,7 @@
         <v>45936.33180555556</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26820,7 +26820,7 @@
         <v>45429.38091435185</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26877,7 +26877,7 @@
         <v>45405.35324074074</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26934,7 +26934,7 @@
         <v>44797.45368055555</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26991,7 +26991,7 @@
         <v>45035.65569444445</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27048,7 +27048,7 @@
         <v>45887</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27105,7 +27105,7 @@
         <v>45938</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27162,7 +27162,7 @@
         <v>45939.60835648148</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27224,7 +27224,7 @@
         <v>45939.48560185185</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27281,7 +27281,7 @@
         <v>45937.37216435185</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27338,7 +27338,7 @@
         <v>45259</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27395,7 +27395,7 @@
         <v>45169.63672453703</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>45104.36805555555</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27509,7 +27509,7 @@
         <v>44900.4021875</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27566,7 +27566,7 @@
         <v>45942.69231481481</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27623,7 +27623,7 @@
         <v>45702</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>45944</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>44974.38300925926</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>45944</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         <v>45945.64885416667</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>45944</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>45617.47813657407</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>45944</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>45162.45288194445</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44694.42996527778</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>45502.46032407408</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44974</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28312,7 +28312,7 @@
         <v>45091</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28369,7 +28369,7 @@
         <v>44926.32438657407</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44455.40655092592</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>45604.37665509259</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>45097</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44277.63270833333</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>45477.83650462963</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>45265.63447916666</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>45084</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44953.47414351852</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>45019.47556712963</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>45299</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>45957.39216435186</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>45951</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>45951</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>45957.39133101852</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29229,7 +29229,7 @@
         <v>45951</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>45645.71857638889</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>45959.66341435185</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>45436</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>45366</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>45505</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29576,7 +29576,7 @@
         <v>44903</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29633,7 +29633,7 @@
         <v>45938.6012962963</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29690,7 +29690,7 @@
         <v>45961.49508101852</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29747,7 +29747,7 @@
         <v>45922</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29804,7 +29804,7 @@
         <v>45096.35314814815</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29861,7 +29861,7 @@
         <v>45167</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29918,7 +29918,7 @@
         <v>45960.68140046296</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29975,7 +29975,7 @@
         <v>45960.68377314815</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30032,7 +30032,7 @@
         <v>45645.89479166667</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30094,7 +30094,7 @@
         <v>45961.39516203704</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30151,7 +30151,7 @@
         <v>45961.48678240741</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30208,7 +30208,7 @@
         <v>45352.42900462963</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30265,7 +30265,7 @@
         <v>45751</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30327,7 +30327,7 @@
         <v>45254</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30384,7 +30384,7 @@
         <v>45254.67153935185</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30441,7 +30441,7 @@
         <v>45593</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30498,7 +30498,7 @@
         <v>45203.51585648148</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30555,7 +30555,7 @@
         <v>44481.57100694445</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30612,7 +30612,7 @@
         <v>44750.51511574074</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30669,7 +30669,7 @@
         <v>44714.33734953704</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30726,7 +30726,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30788,7 +30788,7 @@
         <v>45441.46991898148</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30845,7 +30845,7 @@
         <v>45441.47077546296</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30902,7 +30902,7 @@
         <v>45441.47675925926</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30959,7 +30959,7 @@
         <v>45377.67119212963</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31021,7 +31021,7 @@
         <v>45972.44842592593</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31078,7 +31078,7 @@
         <v>45972</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31135,7 +31135,7 @@
         <v>45972.35881944445</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31192,7 +31192,7 @@
         <v>45170.44670138889</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31249,7 +31249,7 @@
         <v>44869</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31306,7 +31306,7 @@
         <v>44266.43890046296</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31368,7 +31368,7 @@
         <v>45975.675625</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31425,7 +31425,7 @@
         <v>45754.47988425926</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31482,7 +31482,7 @@
         <v>45978.37584490741</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31539,7 +31539,7 @@
         <v>45979.6125462963</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31596,7 +31596,7 @@
         <v>45978.37863425926</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         <v>45268.56440972222</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31710,7 +31710,7 @@
         <v>45979</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31767,7 +31767,7 @@
         <v>45441.43418981481</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31829,7 +31829,7 @@
         <v>45597.56770833334</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31886,7 +31886,7 @@
         <v>45981</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>45092</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>45981</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32057,7 +32057,7 @@
         <v>45980.60736111111</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32114,7 +32114,7 @@
         <v>44405.6525</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>45378.45703703703</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32228,7 +32228,7 @@
         <v>45382.61456018518</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32285,7 +32285,7 @@
         <v>45186.38148148148</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32342,7 +32342,7 @@
         <v>45987.59237268518</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32399,7 +32399,7 @@
         <v>45987</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32456,7 +32456,7 @@
         <v>45429.61027777778</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32513,7 +32513,7 @@
         <v>45371.52128472222</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32570,7 +32570,7 @@
         <v>45411.41262731481</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32627,7 +32627,7 @@
         <v>45989</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32684,7 +32684,7 @@
         <v>45989.57967592592</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32741,7 +32741,7 @@
         <v>45558</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32798,7 +32798,7 @@
         <v>44950.63775462963</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32855,7 +32855,7 @@
         <v>45246.35570601852</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32912,7 +32912,7 @@
         <v>45246.36679398148</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32969,7 +32969,7 @@
         <v>44333.65354166667</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         <v>44697</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33083,7 +33083,7 @@
         <v>46034.48262731481</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33140,7 +33140,7 @@
         <v>46034.46400462963</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33197,7 +33197,7 @@
         <v>45580.45979166667</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33254,7 +33254,7 @@
         <v>45994.7596412037</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33311,7 +33311,7 @@
         <v>45159.60880787037</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33368,7 +33368,7 @@
         <v>45995</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33425,7 +33425,7 @@
         <v>45541</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33482,7 +33482,7 @@
         <v>45995</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33539,7 +33539,7 @@
         <v>44635.56521990741</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33601,7 +33601,7 @@
         <v>45462.36393518518</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33658,7 +33658,7 @@
         <v>44378</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         <v>46041.44270833334</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33772,7 +33772,7 @@
         <v>45042.59592592593</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33829,7 +33829,7 @@
         <v>45642</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33886,7 +33886,7 @@
         <v>45352.44460648148</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33943,7 +33943,7 @@
         <v>44970.59310185185</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34000,7 +34000,7 @@
         <v>45568.61333333333</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34057,7 +34057,7 @@
         <v>45145.52710648148</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34114,7 +34114,7 @@
         <v>46001.66449074074</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34171,7 +34171,7 @@
         <v>46042</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34228,7 +34228,7 @@
         <v>44510</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34285,7 +34285,7 @@
         <v>45642</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34342,7 +34342,7 @@
         <v>45642</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34399,7 +34399,7 @@
         <v>45624.70648148148</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34456,7 +34456,7 @@
         <v>45170</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34513,7 +34513,7 @@
         <v>44965</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34575,7 +34575,7 @@
         <v>46042</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34632,7 +34632,7 @@
         <v>44477</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34689,7 +34689,7 @@
         <v>45257</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34746,7 +34746,7 @@
         <v>45538.93474537037</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34803,7 +34803,7 @@
         <v>45926.56075231481</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34860,7 +34860,7 @@
         <v>45456.47403935185</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34917,7 +34917,7 @@
         <v>45616.36583333334</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34974,7 +34974,7 @@
         <v>44421.45346064815</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35031,7 +35031,7 @@
         <v>45351.53387731482</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35088,7 +35088,7 @@
         <v>46044.63100694444</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35145,7 +35145,7 @@
         <v>44335</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35202,7 +35202,7 @@
         <v>44363</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35259,7 +35259,7 @@
         <v>45737</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35316,7 +35316,7 @@
         <v>46044.63222222222</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35373,7 +35373,7 @@
         <v>46044.62961805556</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35430,7 +35430,7 @@
         <v>46044.63359953704</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35487,7 +35487,7 @@
         <v>46007.39875</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35544,7 +35544,7 @@
         <v>45182.34853009259</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35601,7 +35601,7 @@
         <v>46048</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35658,7 +35658,7 @@
         <v>44489</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35715,7 +35715,7 @@
         <v>45456.50164351852</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35772,7 +35772,7 @@
         <v>46007.40094907407</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35829,7 +35829,7 @@
         <v>46048</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35886,7 +35886,7 @@
         <v>46048</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35943,7 +35943,7 @@
         <v>45198</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36000,7 +36000,7 @@
         <v>45752</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36062,7 +36062,7 @@
         <v>45752</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36124,7 +36124,7 @@
         <v>44735</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36181,7 +36181,7 @@
         <v>46048</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36238,7 +36238,7 @@
         <v>46048</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36295,7 +36295,7 @@
         <v>44365</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36352,7 +36352,7 @@
         <v>44460.48165509259</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36409,7 +36409,7 @@
         <v>44460.48445601852</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         <v>46008.64425925926</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         <v>46048</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36580,7 +36580,7 @@
         <v>46048</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36637,7 +36637,7 @@
         <v>46048</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36694,7 +36694,7 @@
         <v>46048</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36751,7 +36751,7 @@
         <v>46048</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36808,7 +36808,7 @@
         <v>46048</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36865,7 +36865,7 @@
         <v>46048</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36922,7 +36922,7 @@
         <v>46048</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -36979,7 +36979,7 @@
         <v>45153.64658564814</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37036,7 +37036,7 @@
         <v>46049.67254629629</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37093,7 +37093,7 @@
         <v>45568.36644675926</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37150,7 +37150,7 @@
         <v>44970</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37207,7 +37207,7 @@
         <v>44970</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37264,7 +37264,7 @@
         <v>46055</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37321,7 +37321,7 @@
         <v>44641.62895833333</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37378,7 +37378,7 @@
         <v>46052.72417824074</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37435,7 +37435,7 @@
         <v>45342</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37497,7 +37497,7 @@
         <v>45737.71368055556</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37554,7 +37554,7 @@
         <v>45737.71565972222</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37611,7 +37611,7 @@
         <v>45483</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37668,7 +37668,7 @@
         <v>45061</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37725,7 +37725,7 @@
         <v>44893</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37782,7 +37782,7 @@
         <v>46052.72648148148</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37839,7 +37839,7 @@
         <v>45084</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37896,7 +37896,7 @@
         <v>46057.64651620371</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -37953,7 +37953,7 @@
         <v>44900</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38010,7 +38010,7 @@
         <v>45770.58237268519</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38067,7 +38067,7 @@
         <v>44539.37798611111</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38124,7 +38124,7 @@
         <v>45572</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38181,7 +38181,7 @@
         <v>45002.44173611111</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38238,7 +38238,7 @@
         <v>44847</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38295,7 +38295,7 @@
         <v>45673.48840277778</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38352,7 +38352,7 @@
         <v>45673.49356481482</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38409,7 +38409,7 @@
         <v>46057.95987268518</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38471,7 +38471,7 @@
         <v>45432</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38528,7 +38528,7 @@
         <v>46062.54983796296</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38585,7 +38585,7 @@
         <v>45677.69133101852</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38642,7 +38642,7 @@
         <v>45591.52217592593</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38699,7 +38699,7 @@
         <v>46062.55447916667</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38756,7 +38756,7 @@
         <v>46020.62300925926</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38813,7 +38813,7 @@
         <v>45253</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38870,7 +38870,7 @@
         <v>45253.38835648148</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38927,7 +38927,7 @@
         <v>46057</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -38984,7 +38984,7 @@
         <v>46057.61006944445</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39041,7 +39041,7 @@
         <v>45104.40809027778</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39098,7 +39098,7 @@
         <v>45715.65719907408</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39155,7 +39155,7 @@
         <v>45117</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39212,7 +39212,7 @@
         <v>46064.36847222222</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39269,7 +39269,7 @@
         <v>45357.36806712963</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39326,7 +39326,7 @@
         <v>45107.43129629629</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39383,7 +39383,7 @@
         <v>46069.57650462963</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39440,7 +39440,7 @@
         <v>45400.58980324074</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39497,7 +39497,7 @@
         <v>44692.36548611111</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39554,7 +39554,7 @@
         <v>45085.54876157407</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39611,7 +39611,7 @@
         <v>45267.39920138889</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39668,7 +39668,7 @@
         <v>46065</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39725,7 +39725,7 @@
         <v>45836.61804398148</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39782,7 +39782,7 @@
         <v>44726.66380787037</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39839,7 +39839,7 @@
         <v>45351.51993055556</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39896,7 +39896,7 @@
         <v>45426.66671296296</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -39953,7 +39953,7 @@
         <v>44872.66201388889</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40010,7 +40010,7 @@
         <v>45456.67369212963</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40067,7 +40067,7 @@
         <v>45091.6053587963</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40124,7 +40124,7 @@
         <v>46070.6455787037</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40181,7 +40181,7 @@
         <v>46070.65715277778</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40238,7 +40238,7 @@
         <v>46036</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40295,7 +40295,7 @@
         <v>46031.62116898148</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40357,7 +40357,7 @@
         <v>45462.36620370371</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40414,7 +40414,7 @@
         <v>45748.6680787037</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40471,7 +40471,7 @@
         <v>46030.62461805555</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40528,7 +40528,7 @@
         <v>44456.73003472222</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40585,7 +40585,7 @@
         <v>44469.33966435185</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40642,7 +40642,7 @@
         <v>46031.62175925926</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40704,7 +40704,7 @@
         <v>46030</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40761,7 +40761,7 @@
         <v>45114</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40818,7 +40818,7 @@
         <v>45645.94511574074</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40880,7 +40880,7 @@
         <v>46030.71700231481</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -40937,7 +40937,7 @@
         <v>45225.41025462963</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>46031.61980324074</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>44302</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41113,7 +41113,7 @@
         <v>45966.64534722222</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41170,7 +41170,7 @@
         <v>45246.36248842593</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41227,7 +41227,7 @@
         <v>45316</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41289,7 +41289,7 @@
         <v>44601.69193287037</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         <v>44575</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41403,7 +41403,7 @@
         <v>44356</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41460,7 +41460,7 @@
         <v>45170.45903935185</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41517,7 +41517,7 @@
         <v>45334.75275462963</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41574,7 +41574,7 @@
         <v>45169.38462962963</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41631,7 +41631,7 @@
         <v>44729</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41688,7 +41688,7 @@
         <v>44796.5582175926</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41745,7 +41745,7 @@
         <v>44995.3935300926</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41802,7 +41802,7 @@
         <v>44951.61150462963</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41859,7 +41859,7 @@
         <v>45110.37274305556</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>44347.52184027778</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>45432</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42030,7 +42030,7 @@
         <v>44530</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42087,7 +42087,7 @@
         <v>44980</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42144,7 +42144,7 @@
         <v>45350.49405092592</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42201,7 +42201,7 @@
         <v>45229.58723379629</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>45245.6053587963</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42315,7 +42315,7 @@
         <v>45531</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42372,7 +42372,7 @@
         <v>44454</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42429,7 +42429,7 @@
         <v>45352.41668981482</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42486,7 +42486,7 @@
         <v>45208.76167824074</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42543,7 +42543,7 @@
         <v>45110</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42600,7 +42600,7 @@
         <v>45723</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42657,7 +42657,7 @@
         <v>44356.60763888889</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42714,7 +42714,7 @@
         <v>44250</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42771,7 +42771,7 @@
         <v>44756</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42828,7 +42828,7 @@
         <v>45390.56517361111</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42885,7 +42885,7 @@
         <v>45238.69302083334</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -42942,7 +42942,7 @@
         <v>44866.47762731482</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -42999,7 +42999,7 @@
         <v>44376.4734375</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43056,7 +43056,7 @@
         <v>45406.53234953704</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43113,7 +43113,7 @@
         <v>45414.42009259259</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43170,7 +43170,7 @@
         <v>45229.62975694444</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43227,7 +43227,7 @@
         <v>44651.74671296297</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43284,7 +43284,7 @@
         <v>45342</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         <v>45092</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43403,7 +43403,7 @@
         <v>45700</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43460,7 +43460,7 @@
         <v>44274.45173611111</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43517,7 +43517,7 @@
         <v>45365.43888888889</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43574,7 +43574,7 @@
         <v>45748.91024305556</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43631,7 +43631,7 @@
         <v>45709.36311342593</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43688,7 +43688,7 @@
         <v>45455.49011574074</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43745,7 +43745,7 @@
         <v>45051.01875</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43802,7 +43802,7 @@
         <v>45558.56938657408</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43859,7 +43859,7 @@
         <v>45770.58293981481</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43916,7 +43916,7 @@
         <v>45531.63407407407</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -43973,7 +43973,7 @@
         <v>44469.60662037037</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44030,7 +44030,7 @@
         <v>45671.46665509259</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44087,7 +44087,7 @@
         <v>45707.30634259259</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44144,7 +44144,7 @@
         <v>44813.59078703704</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44201,7 +44201,7 @@
         <v>45162</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44258,7 +44258,7 @@
         <v>45254.67070601852</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44315,7 +44315,7 @@
         <v>45700.32070601852</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44372,7 +44372,7 @@
         <v>45540</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44429,7 +44429,7 @@
         <v>45167.62931712963</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44486,7 +44486,7 @@
         <v>44900</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44543,7 +44543,7 @@
         <v>44893.54849537037</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44600,7 +44600,7 @@
         <v>45327</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44657,7 +44657,7 @@
         <v>45624.37628472222</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44714,7 +44714,7 @@
         <v>44712.81100694444</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44771,7 +44771,7 @@
         <v>44834.64751157408</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44828,7 +44828,7 @@
         <v>45229.59815972222</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44885,7 +44885,7 @@
         <v>44967.52363425926</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -44942,7 +44942,7 @@
         <v>45544.48355324074</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -44999,7 +44999,7 @@
         <v>45635.35322916666</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45056,7 +45056,7 @@
         <v>44277.6359375</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45113,7 +45113,7 @@
         <v>45715.65526620371</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45170,7 +45170,7 @@
         <v>45372.57175925926</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45227,7 +45227,7 @@
         <v>45700.31716435185</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45284,7 +45284,7 @@
         <v>45316.52122685185</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45341,7 +45341,7 @@
         <v>45643.60391203704</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45398,7 +45398,7 @@
         <v>44900.39731481481</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45455,7 +45455,7 @@
         <v>45368</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45517,7 +45517,7 @@
         <v>45762.58609953704</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45574,7 +45574,7 @@
         <v>45775.60403935185</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45631,7 +45631,7 @@
         <v>45371.49938657408</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45688,7 +45688,7 @@
         <v>45371.50951388889</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45745,7 +45745,7 @@
         <v>44477</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45802,7 +45802,7 @@
         <v>45254.66980324074</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45859,7 +45859,7 @@
         <v>45593</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -45916,7 +45916,7 @@
         <v>45229</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -45973,7 +45973,7 @@
         <v>45566</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46030,7 +46030,7 @@
         <v>45035.6530324074</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46087,7 +46087,7 @@
         <v>45775.59795138889</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46144,7 +46144,7 @@
         <v>45299.84064814815</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46201,7 +46201,7 @@
         <v>45176</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46263,7 +46263,7 @@
         <v>45638.69723379629</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46320,7 +46320,7 @@
         <v>45783.66892361111</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46377,7 +46377,7 @@
         <v>45783.66291666667</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46434,7 +46434,7 @@
         <v>45588</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46496,7 +46496,7 @@
         <v>45782.36357638889</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46553,7 +46553,7 @@
         <v>45510</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46610,7 +46610,7 @@
         <v>45559.67306712963</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46667,7 +46667,7 @@
         <v>45785.45009259259</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -46724,7 +46724,7 @@
         <v>45783.65039351852</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -46781,7 +46781,7 @@
         <v>45616.62524305555</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -46838,7 +46838,7 @@
         <v>45483</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -46895,7 +46895,7 @@
         <v>45680.36707175926</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -46952,7 +46952,7 @@
         <v>45616.67680555556</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47009,7 +47009,7 @@
         <v>45225.67229166667</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47066,7 +47066,7 @@
         <v>45618</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47123,7 +47123,7 @@
         <v>45786.4771412037</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47180,7 +47180,7 @@
         <v>45786.58278935185</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47237,7 +47237,7 @@
         <v>45617.48858796297</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47294,7 +47294,7 @@
         <v>45726</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47351,7 +47351,7 @@
         <v>45483</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47408,7 +47408,7 @@
         <v>45589.41244212963</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47470,7 +47470,7 @@
         <v>45391.34334490741</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47527,7 +47527,7 @@
         <v>45786</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47589,7 +47589,7 @@
         <v>45590.35905092592</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -47646,7 +47646,7 @@
         <v>45609</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -47703,7 +47703,7 @@
         <v>45743</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -47765,7 +47765,7 @@
         <v>45790.88394675926</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -47822,7 +47822,7 @@
         <v>45743</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -47884,7 +47884,7 @@
         <v>45741</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -47941,7 +47941,7 @@
         <v>45793.45373842592</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -47998,7 +47998,7 @@
         <v>45559.67861111111</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48055,7 +48055,7 @@
         <v>45681.37361111111</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48112,7 +48112,7 @@
         <v>45743</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48174,7 +48174,7 @@
         <v>44851.88027777777</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48231,7 +48231,7 @@
         <v>45806.2697800926</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48288,7 +48288,7 @@
         <v>45806.27275462963</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48345,7 +48345,7 @@
         <v>45609.90935185185</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48402,7 +48402,7 @@
         <v>45812.44450231481</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48459,7 +48459,7 @@
         <v>45812.52005787037</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48516,7 +48516,7 @@
         <v>45812.44835648148</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48573,7 +48573,7 @@
         <v>45812.461875</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -48630,7 +48630,7 @@
         <v>45812.34607638889</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -48687,7 +48687,7 @@
         <v>45706.58739583333</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>

--- a/Översikt HYLTE.xlsx
+++ b/Översikt HYLTE.xlsx
@@ -575,7 +575,7 @@
         <v>44873</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45960.55587962963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45245</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>45099</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>45904</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44601</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45343.54708333333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>45951</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45951</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45245</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>46048</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>45299</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>44332.8927662037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>45265.62506944445</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>45664.60349537037</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>44261</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>44295</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44306.61185185185</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>44266.43267361111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>44274.36774305555</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>44384.7596412037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         <v>44293.64414351852</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>44356.61467592593</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>44810.32085648148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>44373.56392361111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>44442</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>44481</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>44307</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>44256</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>44251</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>44454</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>44600.80572916667</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>44529</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>44557</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>44407</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44705.55137731481</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44483.62717592593</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44375</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>44778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44488</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>44455.3215625</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44336.29427083334</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>44475</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44263</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>44267</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>44267</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>44267</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>44624.50719907408</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>44638.68053240741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>44812.38810185185</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>44498.52659722222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>44845</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>44823.50232638889</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>44266.43594907408</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44559.63728009259</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44578.78960648148</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44659</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>44770.54641203704</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>44341.49761574074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>44266.43403935185</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>44454</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>44648.7996412037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>44375.65076388889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>44323.50259259259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>44756</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>44651.54018518519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>44501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>44371</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>44389</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44651.74912037037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>44876</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44265.67184027778</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44711</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>44735.37892361111</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>44357</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44487</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>44477.47153935185</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>44267</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44356</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44356.62792824074</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>44371</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>44266.44005787037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>44834.64466435185</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>44469</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44796.56157407408</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>44395.92155092592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>44502</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>44336.65660879629</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>44839.40571759259</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>44631</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>44876.8518287037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>44659.52917824074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>44644</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>44384.35923611111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>44515</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>44778</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>44449.47519675926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>44455</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44482.47785879629</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>44482.49334490741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>44867.34995370371</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>44505.61444444444</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>44634</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>44267</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>44363.38550925926</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>44728.58040509259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44770.54723379629</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>44714.34483796296</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>44336.64763888889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>44448</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>44298</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>44753</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>44795.44545138889</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>44699.64168981482</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>44818.55752314815</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>44801.89085648148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>44596</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>44644.43534722222</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>44523.62166666667</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>44500.48740740741</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>44727.56915509259</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44705.55438657408</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44757.5672337963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>44494.82555555556</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44659.49291666667</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44659</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>44495.59643518519</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>45460.46581018518</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>45132.34225694444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>45002.67559027778</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>45715.78807870371</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44714</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>45568.61094907407</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>45062.64271990741</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44900.59535879629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>44302</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>44476.50186342592</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44958.27760416667</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>44899.73085648148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>45107.56026620371</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>44487</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>44321.46956018519</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44851.87695601852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44851.88628472222</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>44559</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>45211</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>45548.57417824074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>45258</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>45229.41303240741</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         <v>45254.46633101852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>45254.49128472222</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>45589.32143518519</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>45254.24417824074</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>45254.24543981482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>45098.38493055556</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>44868</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44910.59451388889</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>45348</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>44823</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>45104.42195601852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>45684.91756944444</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>45539</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>45538</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>45600</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>45737.71179398148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>45352</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>45352.46850694445</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>44719</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>45638.80822916667</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44896.50399305556</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>45733.90141203703</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>45424</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>45434</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44887</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>45163.4753587963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>45752</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>45145</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>45252</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>45089</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>45245</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>45194.49366898148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>44482.49483796296</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>44266</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>45817.46157407408</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>44701.40556712963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11759,7 +11759,7 @@
         <v>45182.43619212963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11816,7 +11816,7 @@
         <v>45817</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11873,7 +11873,7 @@
         <v>45840.62119212963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11930,7 +11930,7 @@
         <v>45825.56289351852</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11987,7 +11987,7 @@
         <v>45615.9209375</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44901.36942129629</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>45694.96034722222</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>45181</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>45760.48758101852</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>45887.49594907407</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>44495.58530092592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>44281.63407407407</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>45708.39929398148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>45597.56563657407</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>45387</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>45673.90599537037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>45730.94172453704</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>45817</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>45694</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>45834.34462962963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>45441.43622685185</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>45441.47888888889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         <v>45820.62440972222</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>45687.32655092593</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         <v>44900.43803240741</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>45436</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>45825.56074074074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>45310.68920138889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>45825.56381944445</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>45229</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>45825.56527777778</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>45889.51666666667</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>45890.61922453704</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>45548.56550925926</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>45748.9025</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>45890.53888888889</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>45891</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13878,7 +13878,7 @@
         <v>45891</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>44332.88799768518</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>45831.40982638889</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>44999.33878472223</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>45833</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>45891</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>45527</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>45897.90869212963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>45839</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>45898.93831018519</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>45897.90677083333</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45601.55399305555</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45841.65174768519</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45835.63642361111</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>44847</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45835.40422453704</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>45838.74873842593</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45299</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>45836.52755787037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>45838.41030092593</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>45839</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45905</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>44371.51618055555</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>44778</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>45904.42685185185</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>45906.50572916667</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15365,7 +15365,7 @@
         <v>45359.36799768519</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15422,7 +15422,7 @@
         <v>45836.51347222222</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>45836.52130787037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>45173</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>45840.59165509259</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>45840.21756944444</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15712,7 +15712,7 @@
         <v>45840.64344907407</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>45840.2062962963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15831,7 +15831,7 @@
         <v>45840.69015046296</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>45906.50864583333</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>45840.64900462963</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16002,7 +16002,7 @@
         <v>45838.38233796296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16059,7 +16059,7 @@
         <v>45840.91797453703</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16116,7 +16116,7 @@
         <v>45841.64542824074</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         <v>45840.61630787037</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16230,7 +16230,7 @@
         <v>45841.6372337963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16287,7 +16287,7 @@
         <v>45832</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>45840.66315972222</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>45132.35609953704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>45478.34775462963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>45910.54612268518</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>45019</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>45777.8774537037</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>45800.43460648148</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>45842.43490740741</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>45910.88354166667</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>45847.31618055556</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>45847.32033564815</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>45845.834375</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>45845.8321875</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45254.24484953703</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17142,7 +17142,7 @@
         <v>45846</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17204,7 +17204,7 @@
         <v>45331</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17261,7 +17261,7 @@
         <v>45287.33472222222</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17318,7 +17318,7 @@
         <v>45846</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         <v>45846</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17442,7 +17442,7 @@
         <v>45558</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17499,7 +17499,7 @@
         <v>45848.63644675926</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>44347.51603009259</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45803.45482638889</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45853.60252314815</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45919.58478009259</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45366.54407407407</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>45918.38724537037</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>45919.57086805555</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>45919.5725</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>45919.32479166667</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>45918.62341435185</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>45476.46474537037</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>45918</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>45919.58993055556</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>45245.57619212963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45922</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45922.39290509259</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45922</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>45642</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>45485</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>45560.4652662037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>45848.62380787037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>45866.55670138889</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>45700.31226851852</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18877,7 +18877,7 @@
         <v>45924.40980324074</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
         <v>45700.31631944444</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>45163</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>45924.42583333333</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>45891.47208333333</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>45674.69728009259</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>45926.55349537037</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>45687.54509259259</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>44739.55142361111</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>45190.59511574074</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>45293</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>45392</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>45630</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>45145.58725694445</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>45929.53550925926</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>45929.53706018518</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>45623</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>45791</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>45926.5547337963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>45926.55976851852</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>45929.63052083334</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>44917.60630787037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>44322</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>45190</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20250,7 +20250,7 @@
         <v>44340</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>45524</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>45524</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         <v>45517</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>45545.86592592593</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20535,7 +20535,7 @@
         <v>45204.83961805556</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>45929.62858796296</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>45395.39934027778</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45541</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>45561</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>45677</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>45589</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>45727</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>45252</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>45257</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45309</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45245</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45288</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21281,7 +21281,7 @@
         <v>44896.50284722223</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>44592</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>45407</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44322</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>45589</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>45623</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>45769.61311342593</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>45672.70796296297</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>45672.70996527778</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>45799</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>45524</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>44508</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21965,7 +21965,7 @@
         <v>44384</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>44889</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22079,7 +22079,7 @@
         <v>45199.83810185185</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22136,7 +22136,7 @@
         <v>44671</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
         <v>45176</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22250,7 +22250,7 @@
         <v>45199.83545138889</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22307,7 +22307,7 @@
         <v>45372</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>45372</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>45665.55378472222</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45819</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44712</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>45395.4019675926</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44739.55359953704</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>45230</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>45672</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22820,7 +22820,7 @@
         <v>44701.5594212963</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44480</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22934,7 +22934,7 @@
         <v>45791</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22991,7 +22991,7 @@
         <v>45677</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>44865</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>45361.72229166667</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23162,7 +23162,7 @@
         <v>45735</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23219,7 +23219,7 @@
         <v>45610</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23276,7 +23276,7 @@
         <v>45929.53883101852</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>45929.63457175926</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23390,7 +23390,7 @@
         <v>45679</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>45735</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>44483</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>45272.66641203704</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>45309</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>45432</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23732,7 +23732,7 @@
         <v>45293</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>44483</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>44476</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>44671</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>45603</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>45131</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>45574</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>45589</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>45546.28277777778</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24245,7 +24245,7 @@
         <v>45618</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24302,7 +24302,7 @@
         <v>45623</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24359,7 +24359,7 @@
         <v>45517</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>45838.38613425926</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>44817</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>45257</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24592,7 +24592,7 @@
         <v>45245</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24649,7 +24649,7 @@
         <v>45692</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         <v>44964</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24763,7 +24763,7 @@
         <v>45931.66429398148</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24820,7 +24820,7 @@
         <v>45841.63096064814</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24877,7 +24877,7 @@
         <v>45790.37271990741</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>45931.6360300926</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>45931.63710648148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>45841.63418981482</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25105,7 +25105,7 @@
         <v>45930.96792824074</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25162,7 +25162,7 @@
         <v>45931.600625</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         <v>45931.60741898148</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25276,7 +25276,7 @@
         <v>45454</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25333,7 +25333,7 @@
         <v>45876.63390046296</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>44701.34938657407</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>45933.35831018518</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>45300.36232638889</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>45877</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25623,7 +25623,7 @@
         <v>45880.5372337963</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>45880.41700231482</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25737,7 +25737,7 @@
         <v>45880</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25794,7 +25794,7 @@
         <v>45880.41631944444</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25851,7 +25851,7 @@
         <v>45933</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25908,7 +25908,7 @@
         <v>45880.42084490741</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         <v>45880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26022,7 +26022,7 @@
         <v>45933.36384259259</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26079,7 +26079,7 @@
         <v>44274.44606481482</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26136,7 +26136,7 @@
         <v>45880</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26193,7 +26193,7 @@
         <v>45880.53280092592</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         <v>45880.53618055556</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         <v>45880.53783564815</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26364,7 +26364,7 @@
         <v>45456.49001157407</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26421,7 +26421,7 @@
         <v>45880</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26478,7 +26478,7 @@
         <v>45880.53377314815</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26535,7 +26535,7 @@
         <v>45880.53457175926</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26592,7 +26592,7 @@
         <v>45880.53542824074</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26649,7 +26649,7 @@
         <v>45936.3324074074</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         <v>45936.33104166666</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26763,7 +26763,7 @@
         <v>45936.33180555556</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26820,7 +26820,7 @@
         <v>45429.38091435185</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26877,7 +26877,7 @@
         <v>45405.35324074074</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26934,7 +26934,7 @@
         <v>44797.45368055555</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26991,7 +26991,7 @@
         <v>45035.65569444445</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27048,7 +27048,7 @@
         <v>45887</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27105,7 +27105,7 @@
         <v>45938</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27162,7 +27162,7 @@
         <v>45939.60835648148</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27224,7 +27224,7 @@
         <v>45939.48560185185</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27281,7 +27281,7 @@
         <v>45937.37216435185</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27338,7 +27338,7 @@
         <v>45259</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27395,7 +27395,7 @@
         <v>45169.63672453703</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>45104.36805555555</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27509,7 +27509,7 @@
         <v>44900.4021875</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27566,7 +27566,7 @@
         <v>45942.69231481481</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27623,7 +27623,7 @@
         <v>45702</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>45944</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>44974.38300925926</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>45944</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         <v>45945.64885416667</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>45944</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>45617.47813657407</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>45944</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>45162.45288194445</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44694.42996527778</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>45502.46032407408</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44974</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28312,7 +28312,7 @@
         <v>45091</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28369,7 +28369,7 @@
         <v>44926.32438657407</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44455.40655092592</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>45604.37665509259</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>45097</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44277.63270833333</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>45477.83650462963</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>45265.63447916666</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>45084</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44953.47414351852</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>45019.47556712963</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>45299</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>45957.39216435186</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>45951</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>45951</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>45957.39133101852</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29229,7 +29229,7 @@
         <v>45951</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>45645.71857638889</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>45959.66341435185</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>45436</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>45366</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>45505</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29576,7 +29576,7 @@
         <v>44903</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29633,7 +29633,7 @@
         <v>45938.6012962963</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29690,7 +29690,7 @@
         <v>45961.49508101852</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29747,7 +29747,7 @@
         <v>45922</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29804,7 +29804,7 @@
         <v>45096.35314814815</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29861,7 +29861,7 @@
         <v>45167</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29918,7 +29918,7 @@
         <v>45960.68140046296</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29975,7 +29975,7 @@
         <v>45960.68377314815</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30032,7 +30032,7 @@
         <v>45645.89479166667</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30094,7 +30094,7 @@
         <v>45961.39516203704</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30151,7 +30151,7 @@
         <v>45961.48678240741</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30208,7 +30208,7 @@
         <v>45352.42900462963</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30265,7 +30265,7 @@
         <v>45751</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30327,7 +30327,7 @@
         <v>45254</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30384,7 +30384,7 @@
         <v>45254.67153935185</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30441,7 +30441,7 @@
         <v>45593</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30498,7 +30498,7 @@
         <v>45203.51585648148</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30555,7 +30555,7 @@
         <v>44481.57100694445</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30612,7 +30612,7 @@
         <v>44750.51511574074</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30669,7 +30669,7 @@
         <v>44714.33734953704</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30726,7 +30726,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30788,7 +30788,7 @@
         <v>45441.46991898148</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30845,7 +30845,7 @@
         <v>45441.47077546296</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30902,7 +30902,7 @@
         <v>45441.47675925926</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30959,7 +30959,7 @@
         <v>45377.67119212963</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31021,7 +31021,7 @@
         <v>45972.44842592593</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31078,7 +31078,7 @@
         <v>45972</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31135,7 +31135,7 @@
         <v>45972.35881944445</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31192,7 +31192,7 @@
         <v>45170.44670138889</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31249,7 +31249,7 @@
         <v>44869</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31306,7 +31306,7 @@
         <v>44266.43890046296</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31368,7 +31368,7 @@
         <v>45975.675625</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31425,7 +31425,7 @@
         <v>45754.47988425926</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31482,7 +31482,7 @@
         <v>45978.37584490741</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31539,7 +31539,7 @@
         <v>45979.6125462963</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31596,7 +31596,7 @@
         <v>45978.37863425926</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         <v>45268.56440972222</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31710,7 +31710,7 @@
         <v>45979</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31767,7 +31767,7 @@
         <v>45441.43418981481</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31829,7 +31829,7 @@
         <v>45597.56770833334</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31886,7 +31886,7 @@
         <v>45981</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>45092</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>45981</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32057,7 +32057,7 @@
         <v>45980.60736111111</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32114,7 +32114,7 @@
         <v>44405.6525</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>45378.45703703703</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32228,7 +32228,7 @@
         <v>45382.61456018518</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32285,7 +32285,7 @@
         <v>45186.38148148148</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32342,7 +32342,7 @@
         <v>45987.59237268518</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32399,7 +32399,7 @@
         <v>45987</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32456,7 +32456,7 @@
         <v>45429.61027777778</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32513,7 +32513,7 @@
         <v>45371.52128472222</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32570,7 +32570,7 @@
         <v>45411.41262731481</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32627,7 +32627,7 @@
         <v>45989</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32684,7 +32684,7 @@
         <v>45989.57967592592</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32741,7 +32741,7 @@
         <v>45558</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32798,7 +32798,7 @@
         <v>44950.63775462963</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32855,7 +32855,7 @@
         <v>45246.35570601852</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32912,7 +32912,7 @@
         <v>45246.36679398148</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32969,7 +32969,7 @@
         <v>44333.65354166667</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         <v>44697</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33083,7 +33083,7 @@
         <v>46034.48262731481</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33140,7 +33140,7 @@
         <v>46034.46400462963</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33197,7 +33197,7 @@
         <v>45580.45979166667</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33254,7 +33254,7 @@
         <v>45994.7596412037</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33311,7 +33311,7 @@
         <v>45159.60880787037</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33368,7 +33368,7 @@
         <v>45995</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33425,7 +33425,7 @@
         <v>45541</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33482,7 +33482,7 @@
         <v>45995</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33539,7 +33539,7 @@
         <v>44635.56521990741</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33601,7 +33601,7 @@
         <v>45462.36393518518</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33658,7 +33658,7 @@
         <v>44378</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         <v>46041.44270833334</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33772,7 +33772,7 @@
         <v>45042.59592592593</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33829,7 +33829,7 @@
         <v>45642</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33886,7 +33886,7 @@
         <v>45352.44460648148</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33943,7 +33943,7 @@
         <v>44970.59310185185</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34000,7 +34000,7 @@
         <v>45568.61333333333</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34057,7 +34057,7 @@
         <v>45145.52710648148</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34114,7 +34114,7 @@
         <v>46001.66449074074</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34171,7 +34171,7 @@
         <v>46042</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34228,7 +34228,7 @@
         <v>44510</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34285,7 +34285,7 @@
         <v>45642</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34342,7 +34342,7 @@
         <v>45642</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34399,7 +34399,7 @@
         <v>45624.70648148148</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34456,7 +34456,7 @@
         <v>45170</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34513,7 +34513,7 @@
         <v>44965</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34575,7 +34575,7 @@
         <v>46042</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34632,7 +34632,7 @@
         <v>44477</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34689,7 +34689,7 @@
         <v>45257</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34746,7 +34746,7 @@
         <v>45538.93474537037</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34803,7 +34803,7 @@
         <v>45926.56075231481</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34860,7 +34860,7 @@
         <v>45456.47403935185</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34917,7 +34917,7 @@
         <v>45616.36583333334</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34974,7 +34974,7 @@
         <v>44421.45346064815</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35031,7 +35031,7 @@
         <v>45351.53387731482</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35088,7 +35088,7 @@
         <v>46044.63100694444</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35145,7 +35145,7 @@
         <v>44335</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35202,7 +35202,7 @@
         <v>44363</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35259,7 +35259,7 @@
         <v>45737</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35316,7 +35316,7 @@
         <v>46044.63222222222</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35373,7 +35373,7 @@
         <v>46044.62961805556</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35430,7 +35430,7 @@
         <v>46044.63359953704</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35487,7 +35487,7 @@
         <v>46007.39875</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35544,7 +35544,7 @@
         <v>45182.34853009259</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35601,7 +35601,7 @@
         <v>46048</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35658,7 +35658,7 @@
         <v>44489</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35715,7 +35715,7 @@
         <v>45456.50164351852</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35772,7 +35772,7 @@
         <v>46007.40094907407</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35829,7 +35829,7 @@
         <v>46048</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35886,7 +35886,7 @@
         <v>46048</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35943,7 +35943,7 @@
         <v>45198</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36000,7 +36000,7 @@
         <v>45752</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36062,7 +36062,7 @@
         <v>45752</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36124,7 +36124,7 @@
         <v>44735</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36181,7 +36181,7 @@
         <v>46048</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36238,7 +36238,7 @@
         <v>46048</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36295,7 +36295,7 @@
         <v>44365</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36352,7 +36352,7 @@
         <v>44460.48165509259</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36409,7 +36409,7 @@
         <v>44460.48445601852</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         <v>46008.64425925926</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         <v>46048</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36580,7 +36580,7 @@
         <v>46048</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36637,7 +36637,7 @@
         <v>46048</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36694,7 +36694,7 @@
         <v>46048</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36751,7 +36751,7 @@
         <v>46048</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36808,7 +36808,7 @@
         <v>46048</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36865,7 +36865,7 @@
         <v>46048</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36922,7 +36922,7 @@
         <v>46048</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -36979,7 +36979,7 @@
         <v>45153.64658564814</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37036,7 +37036,7 @@
         <v>46049.67254629629</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37093,7 +37093,7 @@
         <v>45568.36644675926</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37150,7 +37150,7 @@
         <v>44970</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37207,7 +37207,7 @@
         <v>44970</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37264,7 +37264,7 @@
         <v>46055</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37321,7 +37321,7 @@
         <v>44641.62895833333</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37378,7 +37378,7 @@
         <v>46052.72417824074</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37435,7 +37435,7 @@
         <v>45342</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37497,7 +37497,7 @@
         <v>45737.71368055556</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37554,7 +37554,7 @@
         <v>45737.71565972222</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37611,7 +37611,7 @@
         <v>45483</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37668,7 +37668,7 @@
         <v>45061</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37725,7 +37725,7 @@
         <v>44893</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37782,7 +37782,7 @@
         <v>46052.72648148148</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37839,7 +37839,7 @@
         <v>45084</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37896,7 +37896,7 @@
         <v>46057.64651620371</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -37953,7 +37953,7 @@
         <v>44900</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38010,7 +38010,7 @@
         <v>45770.58237268519</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38067,7 +38067,7 @@
         <v>44539.37798611111</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38124,7 +38124,7 @@
         <v>45572</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38181,7 +38181,7 @@
         <v>45002.44173611111</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38238,7 +38238,7 @@
         <v>44847</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38295,7 +38295,7 @@
         <v>45673.48840277778</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38352,7 +38352,7 @@
         <v>45673.49356481482</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38409,7 +38409,7 @@
         <v>46057.95987268518</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38471,7 +38471,7 @@
         <v>45432</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38528,7 +38528,7 @@
         <v>46062.54983796296</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38585,7 +38585,7 @@
         <v>45677.69133101852</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38642,7 +38642,7 @@
         <v>45591.52217592593</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38699,7 +38699,7 @@
         <v>46062.55447916667</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38756,7 +38756,7 @@
         <v>46020.62300925926</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38813,7 +38813,7 @@
         <v>45253</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38870,7 +38870,7 @@
         <v>45253.38835648148</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38927,7 +38927,7 @@
         <v>46057</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -38984,7 +38984,7 @@
         <v>46057.61006944445</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39041,7 +39041,7 @@
         <v>45104.40809027778</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39098,7 +39098,7 @@
         <v>45715.65719907408</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39155,7 +39155,7 @@
         <v>45117</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39212,7 +39212,7 @@
         <v>46064.36847222222</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39269,7 +39269,7 @@
         <v>45357.36806712963</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39326,7 +39326,7 @@
         <v>45107.43129629629</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39383,7 +39383,7 @@
         <v>46069.57650462963</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39440,7 +39440,7 @@
         <v>45400.58980324074</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39497,7 +39497,7 @@
         <v>44692.36548611111</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39554,7 +39554,7 @@
         <v>45085.54876157407</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39611,7 +39611,7 @@
         <v>45267.39920138889</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39668,7 +39668,7 @@
         <v>46065</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39725,7 +39725,7 @@
         <v>45836.61804398148</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39782,7 +39782,7 @@
         <v>44726.66380787037</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39839,7 +39839,7 @@
         <v>45351.51993055556</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39896,7 +39896,7 @@
         <v>45426.66671296296</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -39953,7 +39953,7 @@
         <v>44872.66201388889</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40010,7 +40010,7 @@
         <v>45456.67369212963</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40067,7 +40067,7 @@
         <v>45091.6053587963</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40124,7 +40124,7 @@
         <v>46070.6455787037</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40181,7 +40181,7 @@
         <v>46070.65715277778</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40238,7 +40238,7 @@
         <v>46036</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40295,7 +40295,7 @@
         <v>46031.62116898148</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40357,7 +40357,7 @@
         <v>45462.36620370371</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40414,7 +40414,7 @@
         <v>45748.6680787037</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40471,7 +40471,7 @@
         <v>46030.62461805555</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40528,7 +40528,7 @@
         <v>44456.73003472222</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40585,7 +40585,7 @@
         <v>44469.33966435185</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40642,7 +40642,7 @@
         <v>46031.62175925926</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40704,7 +40704,7 @@
         <v>46030</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40761,7 +40761,7 @@
         <v>45114</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40818,7 +40818,7 @@
         <v>45645.94511574074</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40880,7 +40880,7 @@
         <v>46030.71700231481</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -40937,7 +40937,7 @@
         <v>45225.41025462963</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>46031.61980324074</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>44302</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41113,7 +41113,7 @@
         <v>45966.64534722222</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41170,7 +41170,7 @@
         <v>45246.36248842593</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41227,7 +41227,7 @@
         <v>45316</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41289,7 +41289,7 @@
         <v>44601.69193287037</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         <v>44575</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41403,7 +41403,7 @@
         <v>44356</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41460,7 +41460,7 @@
         <v>45170.45903935185</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41517,7 +41517,7 @@
         <v>45334.75275462963</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41574,7 +41574,7 @@
         <v>45169.38462962963</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41631,7 +41631,7 @@
         <v>44729</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41688,7 +41688,7 @@
         <v>44796.5582175926</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41745,7 +41745,7 @@
         <v>44995.3935300926</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41802,7 +41802,7 @@
         <v>44951.61150462963</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41859,7 +41859,7 @@
         <v>45110.37274305556</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>44347.52184027778</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>45432</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42030,7 +42030,7 @@
         <v>44530</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42087,7 +42087,7 @@
         <v>44980</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42144,7 +42144,7 @@
         <v>45350.49405092592</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42201,7 +42201,7 @@
         <v>45229.58723379629</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>45245.6053587963</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42315,7 +42315,7 @@
         <v>45531</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42372,7 +42372,7 @@
         <v>44454</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42429,7 +42429,7 @@
         <v>45352.41668981482</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42486,7 +42486,7 @@
         <v>45208.76167824074</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42543,7 +42543,7 @@
         <v>45110</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42600,7 +42600,7 @@
         <v>45723</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42657,7 +42657,7 @@
         <v>44356.60763888889</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42714,7 +42714,7 @@
         <v>44250</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42771,7 +42771,7 @@
         <v>44756</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42828,7 +42828,7 @@
         <v>45390.56517361111</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42885,7 +42885,7 @@
         <v>45238.69302083334</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -42942,7 +42942,7 @@
         <v>44866.47762731482</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -42999,7 +42999,7 @@
         <v>44376.4734375</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43056,7 +43056,7 @@
         <v>45406.53234953704</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43113,7 +43113,7 @@
         <v>45414.42009259259</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43170,7 +43170,7 @@
         <v>45229.62975694444</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43227,7 +43227,7 @@
         <v>44651.74671296297</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43284,7 +43284,7 @@
         <v>45342</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         <v>45092</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43403,7 +43403,7 @@
         <v>45700</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43460,7 +43460,7 @@
         <v>44274.45173611111</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43517,7 +43517,7 @@
         <v>45365.43888888889</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43574,7 +43574,7 @@
         <v>45748.91024305556</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43631,7 +43631,7 @@
         <v>45709.36311342593</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43688,7 +43688,7 @@
         <v>45455.49011574074</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43745,7 +43745,7 @@
         <v>45051.01875</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43802,7 +43802,7 @@
         <v>45558.56938657408</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43859,7 +43859,7 @@
         <v>45770.58293981481</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43916,7 +43916,7 @@
         <v>45531.63407407407</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -43973,7 +43973,7 @@
         <v>44469.60662037037</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44030,7 +44030,7 @@
         <v>45671.46665509259</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44087,7 +44087,7 @@
         <v>45707.30634259259</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44144,7 +44144,7 @@
         <v>44813.59078703704</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44201,7 +44201,7 @@
         <v>45162</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44258,7 +44258,7 @@
         <v>45254.67070601852</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44315,7 +44315,7 @@
         <v>45700.32070601852</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44372,7 +44372,7 @@
         <v>45540</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44429,7 +44429,7 @@
         <v>45167.62931712963</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44486,7 +44486,7 @@
         <v>44900</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44543,7 +44543,7 @@
         <v>44893.54849537037</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44600,7 +44600,7 @@
         <v>45327</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44657,7 +44657,7 @@
         <v>45624.37628472222</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44714,7 +44714,7 @@
         <v>44712.81100694444</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44771,7 +44771,7 @@
         <v>44834.64751157408</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44828,7 +44828,7 @@
         <v>45229.59815972222</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44885,7 +44885,7 @@
         <v>44967.52363425926</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -44942,7 +44942,7 @@
         <v>45544.48355324074</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -44999,7 +44999,7 @@
         <v>45635.35322916666</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45056,7 +45056,7 @@
         <v>44277.6359375</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45113,7 +45113,7 @@
         <v>45715.65526620371</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45170,7 +45170,7 @@
         <v>45372.57175925926</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45227,7 +45227,7 @@
         <v>45700.31716435185</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45284,7 +45284,7 @@
         <v>45316.52122685185</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45341,7 +45341,7 @@
         <v>45643.60391203704</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45398,7 +45398,7 @@
         <v>44900.39731481481</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45455,7 +45455,7 @@
         <v>45368</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45517,7 +45517,7 @@
         <v>45762.58609953704</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45574,7 +45574,7 @@
         <v>45775.60403935185</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45631,7 +45631,7 @@
         <v>45371.49938657408</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45688,7 +45688,7 @@
         <v>45371.50951388889</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45745,7 +45745,7 @@
         <v>44477</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45802,7 +45802,7 @@
         <v>45254.66980324074</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45859,7 +45859,7 @@
         <v>45593</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -45916,7 +45916,7 @@
         <v>45229</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -45973,7 +45973,7 @@
         <v>45566</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46030,7 +46030,7 @@
         <v>45035.6530324074</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46087,7 +46087,7 @@
         <v>45775.59795138889</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46144,7 +46144,7 @@
         <v>45299.84064814815</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46201,7 +46201,7 @@
         <v>45176</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46263,7 +46263,7 @@
         <v>45638.69723379629</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46320,7 +46320,7 @@
         <v>45783.66892361111</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46377,7 +46377,7 @@
         <v>45783.66291666667</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46434,7 +46434,7 @@
         <v>45588</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46496,7 +46496,7 @@
         <v>45782.36357638889</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46553,7 +46553,7 @@
         <v>45510</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46610,7 +46610,7 @@
         <v>45559.67306712963</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46667,7 +46667,7 @@
         <v>45785.45009259259</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -46724,7 +46724,7 @@
         <v>45783.65039351852</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -46781,7 +46781,7 @@
         <v>45616.62524305555</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -46838,7 +46838,7 @@
         <v>45483</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -46895,7 +46895,7 @@
         <v>45680.36707175926</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -46952,7 +46952,7 @@
         <v>45616.67680555556</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47009,7 +47009,7 @@
         <v>45225.67229166667</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47066,7 +47066,7 @@
         <v>45618</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47123,7 +47123,7 @@
         <v>45786.4771412037</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47180,7 +47180,7 @@
         <v>45786.58278935185</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47237,7 +47237,7 @@
         <v>45617.48858796297</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47294,7 +47294,7 @@
         <v>45726</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47351,7 +47351,7 @@
         <v>45483</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47408,7 +47408,7 @@
         <v>45589.41244212963</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47470,7 +47470,7 @@
         <v>45391.34334490741</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47527,7 +47527,7 @@
         <v>45786</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47589,7 +47589,7 @@
         <v>45590.35905092592</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -47646,7 +47646,7 @@
         <v>45609</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -47703,7 +47703,7 @@
         <v>45743</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -47765,7 +47765,7 @@
         <v>45790.88394675926</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -47822,7 +47822,7 @@
         <v>45743</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -47884,7 +47884,7 @@
         <v>45741</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -47941,7 +47941,7 @@
         <v>45793.45373842592</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -47998,7 +47998,7 @@
         <v>45559.67861111111</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48055,7 +48055,7 @@
         <v>45681.37361111111</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48112,7 +48112,7 @@
         <v>45743</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48174,7 +48174,7 @@
         <v>44851.88027777777</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48231,7 +48231,7 @@
         <v>45806.2697800926</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48288,7 +48288,7 @@
         <v>45806.27275462963</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48345,7 +48345,7 @@
         <v>45609.90935185185</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48402,7 +48402,7 @@
         <v>45812.44450231481</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48459,7 +48459,7 @@
         <v>45812.52005787037</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48516,7 +48516,7 @@
         <v>45812.44835648148</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48573,7 +48573,7 @@
         <v>45812.461875</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -48630,7 +48630,7 @@
         <v>45812.34607638889</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -48687,7 +48687,7 @@
         <v>45706.58739583333</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>

--- a/Översikt HYLTE.xlsx
+++ b/Översikt HYLTE.xlsx
@@ -575,7 +575,7 @@
         <v>44873</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45245</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>45960.55587962963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>45099</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>45904</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44601</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45265.62506944445</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>45664.60349537037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>45951</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>45951</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>45299</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>45343.54708333333</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>46048</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44332.8927662037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>45245</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>44261</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>44295</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44306.61185185185</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>44266.43267361111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>44274.36774305555</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>44384.7596412037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         <v>44293.64414351852</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>44481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>44356.61467592593</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>44810.32085648148</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>44373.56392361111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>44442</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>44256</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>44307</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>44454</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>44600.80572916667</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>44529</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>44557</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>44407</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>44483.62717592593</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44705.55137731481</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44375</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>44488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44455.3215625</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>44475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44263</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>44624.50719907408</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44267</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>44267</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>44336.29427083334</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>44267</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>44812.38810185185</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>44638.68053240741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>44498.52659722222</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>44845</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>44823.50232638889</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>44266.43594907408</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>44559.63728009259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44578.78960648148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44659</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>44770.54641203704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>44341.49761574074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>44266.43403935185</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>44454</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>44648.7996412037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>44323.50259259259</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>44375.65076388889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>44756</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>44651.54018518519</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>44371</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>44501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>44389</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>44651.74912037037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44876</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>44265.67184027778</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44711</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44487</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44735.37892361111</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>44357</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>44477.47153935185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>44267</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44356</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44356.62792824074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44489</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44371</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>44266.44005787037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>44834.64466435185</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>44469</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>44796.56157407408</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44395.92155092592</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>44502</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>44336.65660879629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>44839.40571759259</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>44631</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>44876.8518287037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>44659.52917824074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>44644</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>44384.35923611111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>44515</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>44778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>44449.47519675926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>44455</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>44482.47785879629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44482.49334490741</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>44867.34995370371</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>44505.61444444444</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>44634</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>44267</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>44363.38550925926</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>44728.58040509259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>44770.54723379629</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44714.34483796296</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>44336.64763888889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>44448</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>44298</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>44795.44545138889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>44753</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>44699.64168981482</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>44818.55752314815</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>44801.89085648148</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>44596</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>44644.43534722222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>44523.62166666667</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>44500.48740740741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>44727.56915509259</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>44705.55438657408</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44659.49291666667</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>44659</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>44757.5672337963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>44494.82555555556</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>44495.59643518519</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>45042.59592592593</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>45327</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>45299.84064814815</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>45702</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>45208.76167824074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>44866.47762731482</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>45700.32070601852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>45359.36799768519</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>45254.66980324074</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44900.4021875</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>45331</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>44900</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>44847</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>45254.24417824074</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>45254.24543981482</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>45436</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>45390.56517361111</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>44454</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>44872.66201388889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>44421.45346064815</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>45400.58980324074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>45441.46991898148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>45254.46633101852</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>45254.49128472222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44371.51618055555</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>45061</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>45378.45703703703</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>45382.61456018518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>45752</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>44356.60763888889</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>45253</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>45456.67369212963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>44482.49483796296</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>45097</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>45478.34775462963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>44476.50186342592</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44378</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44405.6525</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>44950.63775462963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>45299</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>45600</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44495.58530092592</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44487</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>45505</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>45352.42900462963</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>44865</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>45352</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>44477</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>44469.33966435185</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>44896.50399305556</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>44347.52184027778</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>44834.64751157408</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>45429.61027777778</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         <v>44489</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11454,7 +11454,7 @@
         <v>45366.54407407407</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>45538</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>45558</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>45642</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>45806.27275462963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>45806.2697800926</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>45834.34462962963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>45617.47813657407</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>45760.48758101852</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>45671.46665509259</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>45609.90935185185</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>45825.56289351852</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>45840.62119212963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>45436</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>45558</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>45812.44835648148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>45673.90599537037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>45812.52005787037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>45887.49594907407</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>45812.461875</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>45812.34607638889</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>45812.44450231481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>45687.32655092593</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12765,7 +12765,7 @@
         <v>45730.94172453704</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         <v>45890.61922453704</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>45694.96034722222</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>45889.51666666667</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>45597.56563657407</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13050,7 +13050,7 @@
         <v>44719</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13107,7 +13107,7 @@
         <v>45708.39929398148</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>45387</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>45890.53888888889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>45748.9025</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>45817.46157407408</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>45817</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45817</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>45706.58739583333</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>45566</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>45891</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13682,7 +13682,7 @@
         <v>45891</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>45820.62440972222</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44701.40556712963</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44900.43803240741</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>45259</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44714.33734953704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44974</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>45825.56527777778</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>45825.56074074074</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>45229.62975694444</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>45891</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>45198</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>45825.56381944445</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>45593</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44481.57100694445</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>45897.90677083333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>45897.90869212963</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>45548.56550925926</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>44900</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         <v>45839</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>45841.65174768519</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>45898.93831018519</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>45441.47888888889</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>45831.40982638889</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>44926.32438657407</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>45299</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>44756</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>45162</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>45162.45288194445</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>45268.56440972222</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>45904.42685185185</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>44903</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>45905</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>45906.50572916667</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>44999.33878472223</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>45601.55399305555</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>45833</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>45906.50864583333</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45835.40422453704</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>44266.43890046296</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>45836.52755787037</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>45835.63642361111</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>45838.74873842593</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>45836.51347222222</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>45836.52130787037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>45838.41030092593</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>45840.64344907407</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>45840.61630787037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>45839</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>45840.2062962963</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>45840.64900462963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>45840.66315972222</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>45723</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>45840.69015046296</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>45840.59165509259</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45254.67070601852</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45910.54612268518</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45840.21756944444</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>45460.46581018518</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>44965</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>45842.43490740741</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>44970</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>44970</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>45840.91797453703</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45841.6372337963</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45841.64542824074</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45910.88354166667</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>45107.56026620371</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>45832</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>45845.834375</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17707,7 +17707,7 @@
         <v>45838.38233796296</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>45845.8321875</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>45800.43460648148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>45456.49001157407</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>45092</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>45777.8774537037</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>45846</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45846</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18173,7 +18173,7 @@
         <v>45846</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         <v>45229.41303240741</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>45847.31618055556</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>45002.67559027778</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>45847.32033564815</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
         <v>45107.43129629629</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>45848.63644675926</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
         <v>45153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18644,7 +18644,7 @@
         <v>45803.45482638889</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18701,7 +18701,7 @@
         <v>45645.71857638889</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>45145.52710648148</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18815,7 +18815,7 @@
         <v>45853.60252314815</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
         <v>44332.88799768518</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>45918</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18986,7 +18986,7 @@
         <v>45918.62341435185</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19043,7 +19043,7 @@
         <v>45918.38724537037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>45638.80822916667</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19157,7 +19157,7 @@
         <v>45922</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19214,7 +19214,7 @@
         <v>45866.55670138889</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19271,7 +19271,7 @@
         <v>45568.36644675926</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19328,7 +19328,7 @@
         <v>45919.57086805555</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19385,7 +19385,7 @@
         <v>45919.5725</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>45919.58993055556</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19499,7 +19499,7 @@
         <v>45922</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>45919.58478009259</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
         <v>45922.39290509259</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19670,7 +19670,7 @@
         <v>45919.32479166667</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19727,7 +19727,7 @@
         <v>45924.42583333333</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19784,7 +19784,7 @@
         <v>45700.31631944444</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19841,7 +19841,7 @@
         <v>45700.31226851852</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19898,7 +19898,7 @@
         <v>45163</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19955,7 +19955,7 @@
         <v>44712.81100694444</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>45687.54509259259</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20069,7 +20069,7 @@
         <v>45891.47208333333</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20126,7 +20126,7 @@
         <v>45848.62380787037</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>45924.40980324074</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20240,7 +20240,7 @@
         <v>45642</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>45642</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>45926.55349537037</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>45926.5547337963</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>45926.55976851852</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20525,7 +20525,7 @@
         <v>45838.38613425926</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>45517</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>45642</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20696,7 +20696,7 @@
         <v>45791</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>44363</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20810,7 +20810,7 @@
         <v>45841.63418981482</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20867,7 +20867,7 @@
         <v>45288</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>45309</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>45407</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         <v>45929.62858796296</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21100,7 +21100,7 @@
         <v>45929.63052083334</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21157,7 +21157,7 @@
         <v>45677</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>45618</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>45692</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>45257</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21385,7 +21385,7 @@
         <v>45395.39934027778</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45929.63457175926</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21499,7 +21499,7 @@
         <v>44384</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         <v>44671</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
         <v>45524</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>45272.66641203704</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>45524</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>45524</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>44483</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>45245</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>45679</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>45790.37271990741</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>45610</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>45929.53550925926</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22183,7 +22183,7 @@
         <v>45929.53706018518</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         <v>45799</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22297,7 +22297,7 @@
         <v>45432</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>44322</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>45791</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>44712</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
         <v>45131</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>45176</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22639,7 +22639,7 @@
         <v>45372</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>45372</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>45361.72229166667</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>45541</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>45257</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>44322</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>45727</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>44917.60630787037</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>45665.55378472222</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45929.53883101852</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45735</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45672</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>45204.83961805556</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45293</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>45245</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>44340</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>44671</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>44896.50284722223</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>44592</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>44729</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45841.63096064814</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>45293</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>45623</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45199.83810185185</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>45769.61311342593</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>45392</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>45395.4019675926</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>45931.6360300926</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>45931.63710648148</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>45589</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>45546.28277777778</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24411,7 +24411,7 @@
         <v>44739.55142361111</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>45931.600625</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>44701.5594212963</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>45145.58725694445</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>45517</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>45230</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>45677</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>45672.70796296297</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>45672.70996527778</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>44483</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44476</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44964</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>45735</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44739.55359953704</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>45309</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44508</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>45623</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>45252</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>45589</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>45190.59511574074</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>45589</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25608,7 +25608,7 @@
         <v>45561</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25665,7 +25665,7 @@
         <v>45819</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25722,7 +25722,7 @@
         <v>44817</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25779,7 +25779,7 @@
         <v>45483</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25836,7 +25836,7 @@
         <v>45574</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25893,7 +25893,7 @@
         <v>45603</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25950,7 +25950,7 @@
         <v>45931.66429398148</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26007,7 +26007,7 @@
         <v>45545.86592592593</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26064,7 +26064,7 @@
         <v>45199.83545138889</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26121,7 +26121,7 @@
         <v>45190</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>44889</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>45630</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>45623</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>44980</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>45246.36248842593</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>45876.63390046296</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>45715.65526620371</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45880.53783564815</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>45880.53542824074</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>45880</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45880.41700231482</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>45880</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>44376.4734375</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45877</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>45544.48355324074</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>45880</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>45880.53377314815</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>45880.53457175926</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>45880.42084490741</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>45880</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>45880.5372337963</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>45880.41631944444</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>45880.53280092592</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>45880.53618055556</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>44365</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>45930.96792824074</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>45931.60741898148</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27722,7 +27722,7 @@
         <v>45229</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27779,7 +27779,7 @@
         <v>45770.58237268519</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27836,7 +27836,7 @@
         <v>45748.6680787037</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27893,7 +27893,7 @@
         <v>44277.6359375</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27950,7 +27950,7 @@
         <v>45933.35831018518</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28007,7 +28007,7 @@
         <v>45936.33104166666</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28064,7 +28064,7 @@
         <v>45936.33180555556</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28121,7 +28121,7 @@
         <v>45933.36384259259</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28178,7 +28178,7 @@
         <v>45933</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28235,7 +28235,7 @@
         <v>45502.46032407408</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28292,7 +28292,7 @@
         <v>45936.3324074074</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28349,7 +28349,7 @@
         <v>45887</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28406,7 +28406,7 @@
         <v>45937.37216435185</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>44321.46956018519</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>45775.60403935185</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
         <v>44456.73003472222</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>44910.59451388889</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>45938</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44477</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28805,7 +28805,7 @@
         <v>45939.60835648148</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28867,7 +28867,7 @@
         <v>45939.48560185185</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28924,7 +28924,7 @@
         <v>45700</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28981,7 +28981,7 @@
         <v>45019</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29038,7 +29038,7 @@
         <v>45257</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>45944</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29152,7 +29152,7 @@
         <v>45944</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29209,7 +29209,7 @@
         <v>45942.69231481481</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         <v>45944</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>45944</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29380,7 +29380,7 @@
         <v>45754.47988425926</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>45945.64885416667</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29494,7 +29494,7 @@
         <v>45091</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29551,7 +29551,7 @@
         <v>44455.40655092592</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29608,7 +29608,7 @@
         <v>45752</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29670,7 +29670,7 @@
         <v>44460.48165509259</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29727,7 +29727,7 @@
         <v>44460.48445601852</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29784,7 +29784,7 @@
         <v>44869</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29841,7 +29841,7 @@
         <v>44356</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29898,7 +29898,7 @@
         <v>45096.35314814815</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29955,7 +29955,7 @@
         <v>44900.59535879629</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30017,7 +30017,7 @@
         <v>45104.40809027778</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30074,7 +30074,7 @@
         <v>45342</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30136,7 +30136,7 @@
         <v>45441.47077546296</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30193,7 +30193,7 @@
         <v>45441.47675925926</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30250,7 +30250,7 @@
         <v>45951</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30307,7 +30307,7 @@
         <v>45951</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30364,7 +30364,7 @@
         <v>45229</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30421,7 +30421,7 @@
         <v>45110.37274305556</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30478,7 +30478,7 @@
         <v>45951</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30535,7 +30535,7 @@
         <v>45957.39216435186</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30592,7 +30592,7 @@
         <v>45170.45903935185</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30649,7 +30649,7 @@
         <v>45957.39133101852</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>45960.68140046296</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         <v>45960.68377314815</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30820,7 +30820,7 @@
         <v>44266</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30882,7 +30882,7 @@
         <v>45310.68920138889</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>45959.66341435185</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -30996,7 +30996,7 @@
         <v>45694</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31053,7 +31053,7 @@
         <v>45751</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31115,7 +31115,7 @@
         <v>45406.53234953704</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31172,7 +31172,7 @@
         <v>45365.43888888889</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>45938.6012962963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31286,7 +31286,7 @@
         <v>45961.39516203704</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31343,7 +31343,7 @@
         <v>44967.52363425926</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31400,7 +31400,7 @@
         <v>45110</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31457,7 +31457,7 @@
         <v>45961.49508101852</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31514,7 +31514,7 @@
         <v>45961.48678240741</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31571,7 +31571,7 @@
         <v>45922</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31628,7 +31628,7 @@
         <v>45145</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31685,7 +31685,7 @@
         <v>45117</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31742,7 +31742,7 @@
         <v>45352.41668981482</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31799,7 +31799,7 @@
         <v>45405.35324074074</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31856,7 +31856,7 @@
         <v>44530</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31913,7 +31913,7 @@
         <v>45104.42195601852</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -31970,7 +31970,7 @@
         <v>45454</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32027,7 +32027,7 @@
         <v>44601.69193287037</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32084,7 +32084,7 @@
         <v>45972.35881944445</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32141,7 +32141,7 @@
         <v>45972.44842592593</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32198,7 +32198,7 @@
         <v>44510</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32255,7 +32255,7 @@
         <v>45972</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32312,7 +32312,7 @@
         <v>45182.34853009259</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32369,7 +32369,7 @@
         <v>45539</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32426,7 +32426,7 @@
         <v>45253.38835648148</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32483,7 +32483,7 @@
         <v>45424</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>45531</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32597,7 +32597,7 @@
         <v>45975.675625</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32654,7 +32654,7 @@
         <v>45715.78807870371</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32711,7 +32711,7 @@
         <v>45978.37584490741</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32768,7 +32768,7 @@
         <v>45182.43619212963</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32825,7 +32825,7 @@
         <v>45414.42009259259</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32882,7 +32882,7 @@
         <v>45591.52217592593</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32939,7 +32939,7 @@
         <v>45978.37863425926</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -32996,7 +32996,7 @@
         <v>45645.94511574074</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33058,7 +33058,7 @@
         <v>45979</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33115,7 +33115,7 @@
         <v>45979.6125462963</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33172,7 +33172,7 @@
         <v>45643.60391203704</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33229,7 +33229,7 @@
         <v>45114</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33286,7 +33286,7 @@
         <v>45980.60736111111</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33343,7 +33343,7 @@
         <v>44970.59310185185</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33400,7 +33400,7 @@
         <v>45538.93474537037</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33457,7 +33457,7 @@
         <v>45981</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33514,7 +33514,7 @@
         <v>45981</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         <v>45167.62931712963</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33628,7 +33628,7 @@
         <v>45170.44670138889</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33685,7 +33685,7 @@
         <v>45462.36393518518</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33742,7 +33742,7 @@
         <v>45170</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33799,7 +33799,7 @@
         <v>45476.46474537037</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33861,7 +33861,7 @@
         <v>45707.30634259259</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33918,7 +33918,7 @@
         <v>45987</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -33975,7 +33975,7 @@
         <v>45987.59237268518</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34032,7 +34032,7 @@
         <v>45733.90141203703</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34089,7 +34089,7 @@
         <v>45604.37665509259</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         <v>45989.57967592592</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34203,7 +34203,7 @@
         <v>45091.6053587963</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34260,7 +34260,7 @@
         <v>45989</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34317,7 +34317,7 @@
         <v>45597.56770833334</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34374,7 +34374,7 @@
         <v>44641.62895833333</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34431,7 +34431,7 @@
         <v>45995</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34488,7 +34488,7 @@
         <v>45994.7596412037</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34545,7 +34545,7 @@
         <v>45432</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34602,7 +34602,7 @@
         <v>45995</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34659,7 +34659,7 @@
         <v>45159.60880787037</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34716,7 +34716,7 @@
         <v>46042</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34773,7 +34773,7 @@
         <v>45456.47403935185</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34830,7 +34830,7 @@
         <v>46041.44270833334</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34887,7 +34887,7 @@
         <v>45366</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34949,7 +34949,7 @@
         <v>46042</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35006,7 +35006,7 @@
         <v>44697</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35063,7 +35063,7 @@
         <v>45737</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35120,7 +35120,7 @@
         <v>45194.49366898148</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35177,7 +35177,7 @@
         <v>46001.66449074074</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35234,7 +35234,7 @@
         <v>44333.65354166667</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35291,7 +35291,7 @@
         <v>46044.62961805556</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35348,7 +35348,7 @@
         <v>46044.63359953704</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35405,7 +35405,7 @@
         <v>45203.51585648148</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35462,7 +35462,7 @@
         <v>45351.53387731482</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35519,7 +35519,7 @@
         <v>45673.48840277778</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35576,7 +35576,7 @@
         <v>45673.49356481482</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35633,7 +35633,7 @@
         <v>45762.58609953704</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35690,7 +35690,7 @@
         <v>46044.63100694444</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35747,7 +35747,7 @@
         <v>46044.63222222222</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35804,7 +35804,7 @@
         <v>45677.69133101852</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35861,7 +35861,7 @@
         <v>44692.36548611111</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35918,7 +35918,7 @@
         <v>45132.34225694444</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -35975,7 +35975,7 @@
         <v>45926.56075231481</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36032,7 +36032,7 @@
         <v>45775.59795138889</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36089,7 +36089,7 @@
         <v>45173</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         <v>45153.64658564814</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36203,7 +36203,7 @@
         <v>46008.64425925926</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36260,7 +36260,7 @@
         <v>45616.36583333334</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36317,7 +36317,7 @@
         <v>45084</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36374,7 +36374,7 @@
         <v>45254.24484953703</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36431,7 +36431,7 @@
         <v>45211</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36488,7 +36488,7 @@
         <v>45568.61094907407</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36545,7 +36545,7 @@
         <v>46048</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36602,7 +36602,7 @@
         <v>46048</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36659,7 +36659,7 @@
         <v>46048</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36716,7 +36716,7 @@
         <v>45085.54876157407</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36773,7 +36773,7 @@
         <v>46048</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36830,7 +36830,7 @@
         <v>46048</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36887,7 +36887,7 @@
         <v>46048</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>45441.43418981481</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>46007.39875</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37063,7 +37063,7 @@
         <v>46048</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37120,7 +37120,7 @@
         <v>46048</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37177,7 +37177,7 @@
         <v>45456.50164351852</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37234,7 +37234,7 @@
         <v>46049.67254629629</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37291,7 +37291,7 @@
         <v>46048</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37348,7 +37348,7 @@
         <v>46048</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37405,7 +37405,7 @@
         <v>46007.40094907407</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37462,7 +37462,7 @@
         <v>45709.36311342593</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37519,7 +37519,7 @@
         <v>46048</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37576,7 +37576,7 @@
         <v>46048</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37633,7 +37633,7 @@
         <v>46048</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
         <v>45225.41025462963</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         <v>45181</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37804,7 +37804,7 @@
         <v>44823</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37861,7 +37861,7 @@
         <v>46052.72648148148</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -37918,7 +37918,7 @@
         <v>46052.72417824074</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -37975,7 +37975,7 @@
         <v>44539.37798611111</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38032,7 +38032,7 @@
         <v>46055</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38089,7 +38089,7 @@
         <v>45238.69302083334</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         <v>45287.33472222222</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38203,7 +38203,7 @@
         <v>44701.34938657407</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38265,7 +38265,7 @@
         <v>44735</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38322,7 +38322,7 @@
         <v>44651.74671296297</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38379,7 +38379,7 @@
         <v>45169.38462962963</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38436,7 +38436,7 @@
         <v>46057.95987268518</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38498,7 +38498,7 @@
         <v>46057.64651620371</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38555,7 +38555,7 @@
         <v>45316</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38617,7 +38617,7 @@
         <v>45167</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38674,7 +38674,7 @@
         <v>45254</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38731,7 +38731,7 @@
         <v>45254.67153935185</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38788,7 +38788,7 @@
         <v>45245.6053587963</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38845,7 +38845,7 @@
         <v>44281.63407407407</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38902,7 +38902,7 @@
         <v>46020.62300925926</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -38959,7 +38959,7 @@
         <v>44778</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39016,7 +39016,7 @@
         <v>46062.54983796296</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39073,7 +39073,7 @@
         <v>44847</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39130,7 +39130,7 @@
         <v>45531.63407407407</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         <v>46057.61006944445</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39244,7 +39244,7 @@
         <v>44694.42996527778</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39301,7 +39301,7 @@
         <v>46064.36847222222</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39358,7 +39358,7 @@
         <v>45245.57619212963</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39415,7 +39415,7 @@
         <v>45092</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39472,7 +39472,7 @@
         <v>45051.01875</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39529,7 +39529,7 @@
         <v>45098.38493055556</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39591,7 +39591,7 @@
         <v>45351.51993055556</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39648,7 +39648,7 @@
         <v>44797.45368055555</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39705,7 +39705,7 @@
         <v>44335</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39762,7 +39762,7 @@
         <v>45267.39920138889</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39819,7 +39819,7 @@
         <v>44974.38300925926</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39876,7 +39876,7 @@
         <v>46065</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -39933,7 +39933,7 @@
         <v>45348</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -39990,7 +39990,7 @@
         <v>44559</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40047,7 +40047,7 @@
         <v>45752</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40109,7 +40109,7 @@
         <v>46070.6455787037</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40166,7 +40166,7 @@
         <v>44893.54849537037</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40223,7 +40223,7 @@
         <v>46069.57650462963</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40280,7 +40280,7 @@
         <v>46070.65715277778</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40337,7 +40337,7 @@
         <v>46036</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40394,7 +40394,7 @@
         <v>46030.62461805555</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40451,7 +40451,7 @@
         <v>45966.64534722222</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40508,7 +40508,7 @@
         <v>46030.71700231481</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40565,7 +40565,7 @@
         <v>46030</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40622,7 +40622,7 @@
         <v>45455.49011574074</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40679,7 +40679,7 @@
         <v>45104.36805555555</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40736,7 +40736,7 @@
         <v>45334.75275462963</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40793,7 +40793,7 @@
         <v>45645.89479166667</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40855,7 +40855,7 @@
         <v>46031.61980324074</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -40917,7 +40917,7 @@
         <v>45352.46850694445</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -40974,7 +40974,7 @@
         <v>46034.48262731481</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41031,7 +41031,7 @@
         <v>45715.65719907408</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41088,7 +41088,7 @@
         <v>45316.52122685185</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41145,7 +41145,7 @@
         <v>46031.62116898148</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41207,7 +41207,7 @@
         <v>44796.5582175926</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41264,7 +41264,7 @@
         <v>46034.46400462963</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41321,7 +41321,7 @@
         <v>44901.36942129629</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41378,7 +41378,7 @@
         <v>46031.62175925926</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41440,7 +41440,7 @@
         <v>45589.32143518519</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41497,7 +41497,7 @@
         <v>46062.55447916667</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41554,7 +41554,7 @@
         <v>44899.73085648148</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41611,7 +41611,7 @@
         <v>44995.3935300926</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41668,7 +41668,7 @@
         <v>45548.57417824074</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41725,7 +41725,7 @@
         <v>44958.27760416667</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41782,7 +41782,7 @@
         <v>44575</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41839,7 +41839,7 @@
         <v>45572</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41896,7 +41896,7 @@
         <v>44887</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -41953,7 +41953,7 @@
         <v>44951.61150462963</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42010,7 +42010,7 @@
         <v>45265.63447916666</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         <v>45432</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42124,7 +42124,7 @@
         <v>45836.61804398148</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42181,7 +42181,7 @@
         <v>45132.35609953704</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42238,7 +42238,7 @@
         <v>45246.35570601852</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42295,7 +42295,7 @@
         <v>45246.36679398148</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42352,7 +42352,7 @@
         <v>45426.66671296296</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42409,7 +42409,7 @@
         <v>46057</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         <v>45371.49938657408</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42523,7 +42523,7 @@
         <v>45186.38148148148</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42580,7 +42580,7 @@
         <v>45558.56938657408</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42637,7 +42637,7 @@
         <v>44302</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42694,7 +42694,7 @@
         <v>45411.41262731481</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42751,7 +42751,7 @@
         <v>45441.43622685185</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42813,7 +42813,7 @@
         <v>45624.70648148148</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42870,7 +42870,7 @@
         <v>44274.44606481482</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -42927,7 +42927,7 @@
         <v>45580.45979166667</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -42984,7 +42984,7 @@
         <v>45568.61333333333</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43041,7 +43041,7 @@
         <v>44480</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43098,7 +43098,7 @@
         <v>44714</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43160,7 +43160,7 @@
         <v>44277.63270833333</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43217,7 +43217,7 @@
         <v>44813.59078703704</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43274,7 +43274,7 @@
         <v>45163.4753587963</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43331,7 +43331,7 @@
         <v>44851.87695601852</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43388,7 +43388,7 @@
         <v>44851.88628472222</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43445,7 +43445,7 @@
         <v>45035.6530324074</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43502,7 +43502,7 @@
         <v>44726.66380787037</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43559,7 +43559,7 @@
         <v>45019.47556712963</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43616,7 +43616,7 @@
         <v>45350.49405092592</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43673,7 +43673,7 @@
         <v>45434</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43730,7 +43730,7 @@
         <v>44469.60662037037</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43787,7 +43787,7 @@
         <v>44900.39731481481</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43844,7 +43844,7 @@
         <v>45357.36806712963</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43901,7 +43901,7 @@
         <v>45372.57175925926</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -43958,7 +43958,7 @@
         <v>45429.38091435185</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44015,7 +44015,7 @@
         <v>45002.44173611111</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44072,7 +44072,7 @@
         <v>45684.91756944444</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44129,7 +44129,7 @@
         <v>45342</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44191,7 +44191,7 @@
         <v>45477.83650462963</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44248,7 +44248,7 @@
         <v>45371.50951388889</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44305,7 +44305,7 @@
         <v>44953.47414351852</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44362,7 +44362,7 @@
         <v>45635.35322916666</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44419,7 +44419,7 @@
         <v>45624.37628472222</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44476,7 +44476,7 @@
         <v>45169.63672453703</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44533,7 +44533,7 @@
         <v>45229.58723379629</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44590,7 +44590,7 @@
         <v>45770.58293981481</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44647,7 +44647,7 @@
         <v>45674.69728009259</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44704,7 +44704,7 @@
         <v>45035.65569444445</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44761,7 +44761,7 @@
         <v>44635.56521990741</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44823,7 +44823,7 @@
         <v>45700.31716435185</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44880,7 +44880,7 @@
         <v>45737.71179398148</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -44937,7 +44937,7 @@
         <v>45084</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -44994,7 +44994,7 @@
         <v>45229.59815972222</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45051,7 +45051,7 @@
         <v>45252</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45108,7 +45108,7 @@
         <v>44750.51511574074</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45165,7 +45165,7 @@
         <v>44274.45173611111</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45222,7 +45222,7 @@
         <v>45368</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45284,7 +45284,7 @@
         <v>44893</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45341,7 +45341,7 @@
         <v>45540</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45398,7 +45398,7 @@
         <v>45541</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45455,7 +45455,7 @@
         <v>45527</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45512,7 +45512,7 @@
         <v>45062.64271990741</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45569,7 +45569,7 @@
         <v>44302</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45626,7 +45626,7 @@
         <v>45371.52128472222</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45683,7 +45683,7 @@
         <v>44347.51603009259</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45740,7 +45740,7 @@
         <v>44868</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45797,7 +45797,7 @@
         <v>45737.71368055556</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45854,7 +45854,7 @@
         <v>45737.71565972222</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -45911,7 +45911,7 @@
         <v>45258</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -45968,7 +45968,7 @@
         <v>45485</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46025,7 +46025,7 @@
         <v>45462.36620370371</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46082,7 +46082,7 @@
         <v>45560.4652662037</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46139,7 +46139,7 @@
         <v>45089</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46196,7 +46196,7 @@
         <v>45593</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46253,7 +46253,7 @@
         <v>45300.36232638889</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46310,7 +46310,7 @@
         <v>45352.44460648148</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46367,7 +46367,7 @@
         <v>45245</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46424,7 +46424,7 @@
         <v>45377.67119212963</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46486,7 +46486,7 @@
         <v>45615.9209375</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46543,7 +46543,7 @@
         <v>45748.91024305556</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46600,7 +46600,7 @@
         <v>45176</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46662,7 +46662,7 @@
         <v>45638.69723379629</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -46719,7 +46719,7 @@
         <v>45588</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -46781,7 +46781,7 @@
         <v>45782.36357638889</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -46838,7 +46838,7 @@
         <v>45616.62524305555</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -46895,7 +46895,7 @@
         <v>45783.66892361111</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -46952,7 +46952,7 @@
         <v>45783.66291666667</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47009,7 +47009,7 @@
         <v>45391.34334490741</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47066,7 +47066,7 @@
         <v>45510</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47123,7 +47123,7 @@
         <v>45783.65039351852</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47180,7 +47180,7 @@
         <v>45616.67680555556</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47237,7 +47237,7 @@
         <v>45786</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47299,7 +47299,7 @@
         <v>45617.48858796297</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47356,7 +47356,7 @@
         <v>45559.67306712963</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47413,7 +47413,7 @@
         <v>45786.58278935185</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47470,7 +47470,7 @@
         <v>45680.36707175926</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47527,7 +47527,7 @@
         <v>45225.67229166667</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47584,7 +47584,7 @@
         <v>45589.41244212963</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -47646,7 +47646,7 @@
         <v>45618</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -47703,7 +47703,7 @@
         <v>45785.45009259259</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -47760,7 +47760,7 @@
         <v>45726</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -47817,7 +47817,7 @@
         <v>45741</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -47874,7 +47874,7 @@
         <v>45483</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -47931,7 +47931,7 @@
         <v>45609</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -47988,7 +47988,7 @@
         <v>45786.4771412037</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48045,7 +48045,7 @@
         <v>45483</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48102,7 +48102,7 @@
         <v>45790.88394675926</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48159,7 +48159,7 @@
         <v>45743</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48221,7 +48221,7 @@
         <v>45590.35905092592</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48278,7 +48278,7 @@
         <v>45743</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48340,7 +48340,7 @@
         <v>45559.67861111111</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48397,7 +48397,7 @@
         <v>45681.37361111111</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48454,7 +48454,7 @@
         <v>45743</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48516,7 +48516,7 @@
         <v>44851.88027777777</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48573,7 +48573,7 @@
         <v>45793.45373842592</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
